--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/INVENTARIO ZAVALETA  8-Ene-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/INVENTARIO ZAVALETA  8-Ene-23.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zavaleta\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#15  ARCHIVO   2 0 2 2\CENTRAL #12  DICIEMBRE 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26400" windowHeight="10980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="464">
   <si>
     <t xml:space="preserve">PRODUCTO </t>
   </si>
@@ -1156,9 +1156,6 @@
   </si>
   <si>
     <t xml:space="preserve">TOMAHAW </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>ARRACHERA BESTWL</t>
@@ -1800,42 +1797,6 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1845,15 +1806,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1874,6 +1826,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2161,16 +2158,16 @@
   <dimension ref="A1:J492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B489" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H487" sqref="H487"/>
+      <selection pane="bottomRight" activeCell="H497" sqref="H497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="49" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="37" customWidth="1"/>
     <col min="3" max="3" width="4.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="3.140625" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
@@ -2181,46 +2178,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -2243,10 +2240,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="39">
         <v>1</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="19"/>
@@ -2260,10 +2257,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="39">
         <v>2</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="19"/>
@@ -2282,10 +2279,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
+      <c r="A7" s="40">
         <v>3</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="19"/>
@@ -2304,10 +2301,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="39">
         <v>4</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="19"/>
@@ -2326,10 +2323,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="39">
         <v>5</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="19"/>
@@ -2348,10 +2345,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="39">
         <v>6</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="19"/>
@@ -2365,10 +2362,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="A11" s="40">
         <v>7</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="19"/>
@@ -2382,10 +2379,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="39">
         <v>8</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="19"/>
@@ -2404,10 +2401,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="39">
         <v>9</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="19"/>
@@ -2426,10 +2423,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="39">
         <v>10</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="19"/>
@@ -2443,11 +2440,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
+      <c r="A15" s="40">
         <v>11</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>461</v>
+      <c r="B15" s="34" t="s">
+        <v>460</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="12"/>
@@ -2465,10 +2462,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="39">
         <v>12</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="19"/>
@@ -2482,10 +2479,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A17" s="39">
         <v>13</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="19"/>
@@ -2504,10 +2501,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="39">
         <v>14</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="19"/>
@@ -2526,10 +2523,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55">
+      <c r="A19" s="40">
         <v>15</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="19"/>
@@ -2548,11 +2545,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="39">
         <v>16</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>442</v>
+      <c r="B20" s="35" t="s">
+        <v>441</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="12"/>
@@ -2570,10 +2567,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
+      <c r="A21" s="39">
         <v>17</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="35" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="19"/>
@@ -2592,10 +2589,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+      <c r="A22" s="39">
         <v>18</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="35" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="19"/>
@@ -2614,10 +2611,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="55">
+      <c r="A23" s="40">
         <v>19</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="19"/>
@@ -2631,11 +2628,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="39">
         <v>20</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>462</v>
+      <c r="B24" s="35" t="s">
+        <v>461</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="12"/>
@@ -2652,10 +2649,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="54">
+      <c r="A25" s="39">
         <v>21</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="35" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="19"/>
@@ -2672,10 +2669,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="39">
         <v>22</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="19"/>
@@ -2695,10 +2692,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+      <c r="A27" s="40">
         <v>23</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="19"/>
@@ -2717,10 +2714,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="54">
+      <c r="A28" s="39">
         <v>24</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="19"/>
@@ -2734,11 +2731,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="54">
+      <c r="A29" s="39">
         <v>25</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>463</v>
+      <c r="B29" s="34" t="s">
+        <v>462</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="12"/>
@@ -2755,10 +2752,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="54">
+      <c r="A30" s="39">
         <v>26</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="19"/>
@@ -2772,10 +2769,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
+      <c r="A31" s="40">
         <v>27</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="19"/>
@@ -2789,10 +2786,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="54">
+      <c r="A32" s="39">
         <v>28</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="19"/>
@@ -2806,10 +2803,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="54">
+      <c r="A33" s="39">
         <v>29</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="19"/>
@@ -2828,10 +2825,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="54">
+      <c r="A34" s="39">
         <v>30</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="19"/>
@@ -2850,10 +2847,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="55">
+      <c r="A35" s="40">
         <v>31</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="19"/>
@@ -2872,10 +2869,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="54">
+      <c r="A36" s="39">
         <v>32</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="19"/>
@@ -2894,10 +2891,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="54">
+      <c r="A37" s="39">
         <v>33</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="19"/>
@@ -2911,10 +2908,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="54">
+      <c r="A38" s="39">
         <v>34</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="28"/>
@@ -2928,10 +2925,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="55">
+      <c r="A39" s="40">
         <v>35</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="19"/>
@@ -2950,10 +2947,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54">
+      <c r="A40" s="39">
         <v>36</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="19"/>
@@ -2967,10 +2964,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="54">
+      <c r="A41" s="39">
         <v>37</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="19"/>
@@ -2989,10 +2986,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="54">
+      <c r="A42" s="39">
         <v>38</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="19"/>
@@ -3006,10 +3003,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="55">
+      <c r="A43" s="40">
         <v>39</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="19"/>
@@ -3023,10 +3020,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="54">
+      <c r="A44" s="39">
         <v>40</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="19"/>
@@ -3040,10 +3037,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="54">
+      <c r="A45" s="39">
         <v>41</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="34" t="s">
         <v>311</v>
       </c>
       <c r="C45" s="19"/>
@@ -3062,10 +3059,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="54">
+      <c r="A46" s="39">
         <v>42</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="19"/>
@@ -3084,10 +3081,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="55">
+      <c r="A47" s="40">
         <v>43</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="19"/>
@@ -3106,10 +3103,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="54">
+      <c r="A48" s="39">
         <v>44</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="19"/>
@@ -3128,10 +3125,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="54">
+      <c r="A49" s="39">
         <v>45</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="19"/>
@@ -3150,10 +3147,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="54">
+      <c r="A50" s="39">
         <v>46</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="19"/>
@@ -3167,10 +3164,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="55">
+      <c r="A51" s="40">
         <v>47</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="19"/>
@@ -3184,10 +3181,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="54">
+      <c r="A52" s="39">
         <v>48</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="19"/>
@@ -3201,10 +3198,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="54">
+      <c r="A53" s="39">
         <v>49</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="19"/>
@@ -3218,10 +3215,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="54">
+      <c r="A54" s="39">
         <v>50</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="19"/>
@@ -3240,10 +3237,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="55">
+      <c r="A55" s="40">
         <v>51</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="19"/>
@@ -3257,10 +3254,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="54">
+      <c r="A56" s="39">
         <v>52</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="34" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="19"/>
@@ -3274,10 +3271,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="54">
+      <c r="A57" s="39">
         <v>53</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="19"/>
@@ -3291,10 +3288,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="54">
+      <c r="A58" s="39">
         <v>54</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="19"/>
@@ -3313,10 +3310,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="55">
+      <c r="A59" s="40">
         <v>55</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="19"/>
@@ -3335,10 +3332,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="54">
+      <c r="A60" s="39">
         <v>56</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="34" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="19"/>
@@ -3352,10 +3349,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="54">
+      <c r="A61" s="39">
         <v>57</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="19"/>
@@ -3369,10 +3366,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="54">
+      <c r="A62" s="39">
         <v>58</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="34" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="19"/>
@@ -3391,10 +3388,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="55">
+      <c r="A63" s="40">
         <v>59</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="19"/>
@@ -3408,10 +3405,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="54">
+      <c r="A64" s="39">
         <v>60</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="19"/>
@@ -3430,10 +3427,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="54">
+      <c r="A65" s="39">
         <v>61</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="34" t="s">
         <v>312</v>
       </c>
       <c r="C65" s="19"/>
@@ -3451,11 +3448,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="54">
+      <c r="A66" s="39">
         <v>62</v>
       </c>
-      <c r="B66" s="46" t="s">
-        <v>448</v>
+      <c r="B66" s="34" t="s">
+        <v>447</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="12"/>
@@ -3473,11 +3470,11 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="55">
+      <c r="A67" s="40">
         <v>63</v>
       </c>
-      <c r="B67" s="46" t="s">
-        <v>459</v>
+      <c r="B67" s="34" t="s">
+        <v>458</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="12"/>
@@ -3495,11 +3492,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="54">
+      <c r="A68" s="39">
         <v>64</v>
       </c>
-      <c r="B68" s="46" t="s">
-        <v>458</v>
+      <c r="B68" s="34" t="s">
+        <v>457</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="12"/>
@@ -3517,10 +3514,10 @@
       </c>
     </row>
     <row r="69" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="54">
+      <c r="A69" s="39">
         <v>65</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C69" s="19"/>
@@ -3529,15 +3526,15 @@
       <c r="F69" s="5"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15">
-        <f t="shared" ref="H69:H100" si="2">E69*G69</f>
+        <f t="shared" ref="H69:H83" si="2">E69*G69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="54">
+      <c r="A70" s="39">
         <v>66</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="34" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="19"/>
@@ -3551,10 +3548,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="55">
+      <c r="A71" s="40">
         <v>67</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="19"/>
@@ -3568,10 +3565,10 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="54">
+      <c r="A72" s="39">
         <v>68</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="34" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="19"/>
@@ -3585,10 +3582,10 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="54">
+      <c r="A73" s="39">
         <v>69</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="19"/>
@@ -3602,10 +3599,10 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="54">
+      <c r="A74" s="39">
         <v>70</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="34" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="19"/>
@@ -3624,10 +3621,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="55">
+      <c r="A75" s="40">
         <v>71</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="34" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="19"/>
@@ -3646,10 +3643,10 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="54">
+      <c r="A76" s="39">
         <v>72</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C76" s="19"/>
@@ -3668,10 +3665,10 @@
       </c>
     </row>
     <row r="77" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="54">
+      <c r="A77" s="39">
         <v>73</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C77" s="19"/>
@@ -3690,10 +3687,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="54">
+      <c r="A78" s="39">
         <v>74</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="34" t="s">
         <v>81</v>
       </c>
       <c r="C78" s="19"/>
@@ -3712,10 +3709,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="55">
+      <c r="A79" s="40">
         <v>75</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="19"/>
@@ -3734,10 +3731,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="54">
+      <c r="A80" s="39">
         <v>76</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="34" t="s">
         <v>83</v>
       </c>
       <c r="C80" s="19"/>
@@ -3756,10 +3753,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="54">
+      <c r="A81" s="39">
         <v>77</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="34" t="s">
         <v>313</v>
       </c>
       <c r="C81" s="19"/>
@@ -3773,10 +3770,10 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="54">
+      <c r="A82" s="39">
         <v>78</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="19"/>
@@ -3790,10 +3787,10 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="55">
+      <c r="A83" s="40">
         <v>79</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="34" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="19"/>
@@ -3807,10 +3804,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="54">
+      <c r="A84" s="39">
         <v>80</v>
       </c>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="19"/>
@@ -3824,10 +3821,10 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="54">
+      <c r="A85" s="39">
         <v>81</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B85" s="34" t="s">
         <v>87</v>
       </c>
       <c r="C85" s="19"/>
@@ -3846,10 +3843,10 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="54">
+      <c r="A86" s="39">
         <v>82</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="34" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="19"/>
@@ -3863,10 +3860,10 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="55">
+      <c r="A87" s="40">
         <v>83</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="34" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="19"/>
@@ -3880,10 +3877,10 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="54">
+      <c r="A88" s="39">
         <v>84</v>
       </c>
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="34" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="19"/>
@@ -3897,10 +3894,10 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="54">
+      <c r="A89" s="39">
         <v>85</v>
       </c>
-      <c r="B89" s="46" t="s">
+      <c r="B89" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="19"/>
@@ -3918,10 +3915,10 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="54">
+      <c r="A90" s="39">
         <v>86</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="34" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="19"/>
@@ -3935,10 +3932,10 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="55">
+      <c r="A91" s="40">
         <v>87</v>
       </c>
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="34" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="19"/>
@@ -3956,10 +3953,10 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="54">
+      <c r="A92" s="39">
         <v>88</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="19"/>
@@ -3973,10 +3970,10 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="54">
+      <c r="A93" s="39">
         <v>89</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="34" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="19"/>
@@ -3990,10 +3987,10 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="54">
+      <c r="A94" s="39">
         <v>90</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="34" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="19"/>
@@ -4007,10 +4004,10 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="55">
+      <c r="A95" s="40">
         <v>91</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="19"/>
@@ -4024,10 +4021,10 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="54">
+      <c r="A96" s="39">
         <v>92</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C96" s="19"/>
@@ -4046,10 +4043,10 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="54">
+      <c r="A97" s="39">
         <v>93</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="34" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="19"/>
@@ -4068,10 +4065,10 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="54">
+      <c r="A98" s="39">
         <v>94</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="34" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="19"/>
@@ -4085,10 +4082,10 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="55">
+      <c r="A99" s="40">
         <v>95</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="34" t="s">
         <v>99</v>
       </c>
       <c r="C99" s="19"/>
@@ -4102,10 +4099,10 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="54">
+      <c r="A100" s="39">
         <v>96</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="34" t="s">
         <v>100</v>
       </c>
       <c r="C100" s="19"/>
@@ -4124,10 +4121,10 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="54">
+      <c r="A101" s="39">
         <v>97</v>
       </c>
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="34" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="19"/>
@@ -4146,10 +4143,10 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="54">
+      <c r="A102" s="39">
         <v>98</v>
       </c>
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="34" t="s">
         <v>102</v>
       </c>
       <c r="C102" s="19"/>
@@ -4168,10 +4165,10 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="55">
+      <c r="A103" s="40">
         <v>99</v>
       </c>
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C103" s="19"/>
@@ -4190,10 +4187,10 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="54">
+      <c r="A104" s="39">
         <v>100</v>
       </c>
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C104" s="19"/>
@@ -4207,10 +4204,10 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="54">
+      <c r="A105" s="39">
         <v>101</v>
       </c>
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C105" s="19"/>
@@ -4224,10 +4221,10 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="54">
+      <c r="A106" s="39">
         <v>102</v>
       </c>
-      <c r="B106" s="46" t="s">
+      <c r="B106" s="34" t="s">
         <v>106</v>
       </c>
       <c r="C106" s="19"/>
@@ -4241,10 +4238,10 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="55">
+      <c r="A107" s="40">
         <v>103</v>
       </c>
-      <c r="B107" s="46" t="s">
+      <c r="B107" s="34" t="s">
         <v>107</v>
       </c>
       <c r="C107" s="19"/>
@@ -4258,10 +4255,10 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="54">
+      <c r="A108" s="39">
         <v>104</v>
       </c>
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="34" t="s">
         <v>108</v>
       </c>
       <c r="C108" s="19"/>
@@ -4275,10 +4272,10 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="54">
+      <c r="A109" s="39">
         <v>105</v>
       </c>
-      <c r="B109" s="46" t="s">
+      <c r="B109" s="34" t="s">
         <v>109</v>
       </c>
       <c r="C109" s="19"/>
@@ -4292,10 +4289,10 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="54">
+      <c r="A110" s="39">
         <v>106</v>
       </c>
-      <c r="B110" s="46" t="s">
+      <c r="B110" s="34" t="s">
         <v>110</v>
       </c>
       <c r="C110" s="19"/>
@@ -4309,11 +4306,11 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="55">
+      <c r="A111" s="40">
         <v>107</v>
       </c>
-      <c r="B111" s="46" t="s">
-        <v>460</v>
+      <c r="B111" s="34" t="s">
+        <v>459</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="12"/>
@@ -4330,10 +4327,10 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="54">
+      <c r="A112" s="39">
         <v>108</v>
       </c>
-      <c r="B112" s="46" t="s">
+      <c r="B112" s="34" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="19"/>
@@ -4347,10 +4344,10 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="54">
+      <c r="A113" s="39">
         <v>109</v>
       </c>
-      <c r="B113" s="46" t="s">
+      <c r="B113" s="34" t="s">
         <v>111</v>
       </c>
       <c r="C113" s="19"/>
@@ -4369,10 +4366,10 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="54">
+      <c r="A114" s="39">
         <v>110</v>
       </c>
-      <c r="B114" s="46" t="s">
+      <c r="B114" s="34" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="19"/>
@@ -4391,10 +4388,10 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="55">
+      <c r="A115" s="40">
         <v>111</v>
       </c>
-      <c r="B115" s="46" t="s">
+      <c r="B115" s="34" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="19"/>
@@ -4413,11 +4410,11 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="54">
+      <c r="A116" s="39">
         <v>112</v>
       </c>
-      <c r="B116" s="46" t="s">
-        <v>446</v>
+      <c r="B116" s="34" t="s">
+        <v>445</v>
       </c>
       <c r="C116" s="19"/>
       <c r="D116" s="12"/>
@@ -4435,10 +4432,10 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="54">
+      <c r="A117" s="39">
         <v>113</v>
       </c>
-      <c r="B117" s="46" t="s">
+      <c r="B117" s="34" t="s">
         <v>115</v>
       </c>
       <c r="C117" s="19"/>
@@ -4457,11 +4454,11 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="54">
+      <c r="A118" s="39">
         <v>114</v>
       </c>
-      <c r="B118" s="46" t="s">
-        <v>441</v>
+      <c r="B118" s="34" t="s">
+        <v>440</v>
       </c>
       <c r="C118" s="19"/>
       <c r="D118" s="12"/>
@@ -4477,10 +4474,10 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="55">
+      <c r="A119" s="40">
         <v>115</v>
       </c>
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="34" t="s">
         <v>116</v>
       </c>
       <c r="C119" s="19"/>
@@ -4494,10 +4491,10 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="54">
+      <c r="A120" s="39">
         <v>116</v>
       </c>
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C120" s="19"/>
@@ -4515,10 +4512,10 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="54">
+      <c r="A121" s="39">
         <v>117</v>
       </c>
-      <c r="B121" s="46" t="s">
+      <c r="B121" s="34" t="s">
         <v>118</v>
       </c>
       <c r="C121" s="19"/>
@@ -4537,11 +4534,11 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="54">
+      <c r="A122" s="39">
         <v>118</v>
       </c>
-      <c r="B122" s="46" t="s">
-        <v>443</v>
+      <c r="B122" s="34" t="s">
+        <v>442</v>
       </c>
       <c r="C122" s="19"/>
       <c r="D122" s="12"/>
@@ -4559,10 +4556,10 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="55">
+      <c r="A123" s="40">
         <v>119</v>
       </c>
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="34" t="s">
         <v>119</v>
       </c>
       <c r="C123" s="19"/>
@@ -4581,10 +4578,10 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="54">
+      <c r="A124" s="39">
         <v>120</v>
       </c>
-      <c r="B124" s="46" t="s">
+      <c r="B124" s="34" t="s">
         <v>120</v>
       </c>
       <c r="C124" s="19"/>
@@ -4603,10 +4600,10 @@
       </c>
     </row>
     <row r="125" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="54">
+      <c r="A125" s="39">
         <v>121</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C125" s="19"/>
@@ -4620,10 +4617,10 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="54">
+      <c r="A126" s="39">
         <v>122</v>
       </c>
-      <c r="B126" s="46" t="s">
+      <c r="B126" s="34" t="s">
         <v>121</v>
       </c>
       <c r="C126" s="19"/>
@@ -4637,10 +4634,10 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="55">
+      <c r="A127" s="40">
         <v>123</v>
       </c>
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="34" t="s">
         <v>122</v>
       </c>
       <c r="C127" s="19"/>
@@ -4654,10 +4651,10 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="54">
+      <c r="A128" s="39">
         <v>124</v>
       </c>
-      <c r="B128" s="46" t="s">
+      <c r="B128" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C128" s="19"/>
@@ -4676,10 +4673,10 @@
       </c>
     </row>
     <row r="129" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="54">
+      <c r="A129" s="39">
         <v>125</v>
       </c>
-      <c r="B129" s="46" t="s">
+      <c r="B129" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C129" s="19"/>
@@ -4698,10 +4695,10 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="54">
+      <c r="A130" s="39">
         <v>126</v>
       </c>
-      <c r="B130" s="46" t="s">
+      <c r="B130" s="34" t="s">
         <v>125</v>
       </c>
       <c r="C130" s="19"/>
@@ -4716,10 +4713,10 @@
       <c r="J130" s="21"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="55">
+      <c r="A131" s="40">
         <v>127</v>
       </c>
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C131" s="19"/>
@@ -4734,10 +4731,10 @@
       <c r="J131" s="21"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="54">
+      <c r="A132" s="39">
         <v>128</v>
       </c>
-      <c r="B132" s="46" t="s">
+      <c r="B132" s="34" t="s">
         <v>126</v>
       </c>
       <c r="C132" s="19"/>
@@ -4752,10 +4749,10 @@
       <c r="J132" s="21"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="54">
+      <c r="A133" s="39">
         <v>129</v>
       </c>
-      <c r="B133" s="46" t="s">
+      <c r="B133" s="34" t="s">
         <v>127</v>
       </c>
       <c r="C133" s="19"/>
@@ -4774,10 +4771,10 @@
       <c r="J133" s="21"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="54">
+      <c r="A134" s="39">
         <v>130</v>
       </c>
-      <c r="B134" s="46" t="s">
+      <c r="B134" s="34" t="s">
         <v>128</v>
       </c>
       <c r="C134" s="19"/>
@@ -4796,10 +4793,10 @@
       <c r="J134" s="21"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="55">
+      <c r="A135" s="40">
         <v>131</v>
       </c>
-      <c r="B135" s="46" t="s">
+      <c r="B135" s="34" t="s">
         <v>129</v>
       </c>
       <c r="C135" s="19"/>
@@ -4818,10 +4815,10 @@
       <c r="J135" s="21"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="54">
+      <c r="A136" s="39">
         <v>132</v>
       </c>
-      <c r="B136" s="46" t="s">
+      <c r="B136" s="34" t="s">
         <v>130</v>
       </c>
       <c r="C136" s="19"/>
@@ -4840,10 +4837,10 @@
       <c r="J136" s="21"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="54">
+      <c r="A137" s="39">
         <v>133</v>
       </c>
-      <c r="B137" s="46" t="s">
+      <c r="B137" s="34" t="s">
         <v>131</v>
       </c>
       <c r="C137" s="19"/>
@@ -4858,10 +4855,10 @@
       <c r="J137" s="21"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="54">
+      <c r="A138" s="39">
         <v>134</v>
       </c>
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="34" t="s">
         <v>132</v>
       </c>
       <c r="C138" s="19"/>
@@ -4876,10 +4873,10 @@
       <c r="J138" s="21"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="55">
+      <c r="A139" s="40">
         <v>135</v>
       </c>
-      <c r="B139" s="46" t="s">
+      <c r="B139" s="34" t="s">
         <v>133</v>
       </c>
       <c r="C139" s="14"/>
@@ -4898,10 +4895,10 @@
       <c r="J139" s="21"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="54">
+      <c r="A140" s="39">
         <v>136</v>
       </c>
-      <c r="B140" s="46" t="s">
+      <c r="B140" s="34" t="s">
         <v>134</v>
       </c>
       <c r="C140" s="14"/>
@@ -4916,10 +4913,10 @@
       <c r="J140" s="21"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="54">
+      <c r="A141" s="39">
         <v>137</v>
       </c>
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C141" s="14"/>
@@ -4934,10 +4931,10 @@
       <c r="J141" s="21"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="54">
+      <c r="A142" s="39">
         <v>138</v>
       </c>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C142" s="14"/>
@@ -4952,10 +4949,10 @@
       <c r="J142" s="21"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="55">
+      <c r="A143" s="40">
         <v>139</v>
       </c>
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="34" t="s">
         <v>135</v>
       </c>
       <c r="C143" s="14"/>
@@ -4975,10 +4972,10 @@
       <c r="J143" s="21"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="54">
+      <c r="A144" s="39">
         <v>140</v>
       </c>
-      <c r="B144" s="46" t="s">
+      <c r="B144" s="34" t="s">
         <v>136</v>
       </c>
       <c r="C144" s="14"/>
@@ -4993,11 +4990,11 @@
       <c r="J144" s="21"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="54">
+      <c r="A145" s="39">
         <v>141</v>
       </c>
-      <c r="B145" s="46" t="s">
-        <v>428</v>
+      <c r="B145" s="34" t="s">
+        <v>427</v>
       </c>
       <c r="C145" s="14"/>
       <c r="D145" s="5"/>
@@ -5015,10 +5012,10 @@
       <c r="J145" s="21"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="54">
+      <c r="A146" s="39">
         <v>142</v>
       </c>
-      <c r="B146" s="46" t="s">
+      <c r="B146" s="34" t="s">
         <v>137</v>
       </c>
       <c r="C146" s="14"/>
@@ -5032,10 +5029,10 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="55">
+      <c r="A147" s="40">
         <v>143</v>
       </c>
-      <c r="B147" s="46" t="s">
+      <c r="B147" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C147" s="14"/>
@@ -5054,10 +5051,10 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="54">
+      <c r="A148" s="39">
         <v>144</v>
       </c>
-      <c r="B148" s="46" t="s">
+      <c r="B148" s="34" t="s">
         <v>138</v>
       </c>
       <c r="C148" s="14"/>
@@ -5071,10 +5068,10 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="54">
+      <c r="A149" s="39">
         <v>145</v>
       </c>
-      <c r="B149" s="46" t="s">
+      <c r="B149" s="34" t="s">
         <v>139</v>
       </c>
       <c r="C149" s="14"/>
@@ -5092,10 +5089,10 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="54">
+      <c r="A150" s="39">
         <v>146</v>
       </c>
-      <c r="B150" s="46" t="s">
+      <c r="B150" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C150" s="14"/>
@@ -5114,10 +5111,10 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="55">
+      <c r="A151" s="40">
         <v>147</v>
       </c>
-      <c r="B151" s="46" t="s">
+      <c r="B151" s="34" t="s">
         <v>141</v>
       </c>
       <c r="C151" s="14"/>
@@ -5131,11 +5128,11 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="54">
+      <c r="A152" s="39">
         <v>148</v>
       </c>
-      <c r="B152" s="46" t="s">
-        <v>434</v>
+      <c r="B152" s="34" t="s">
+        <v>433</v>
       </c>
       <c r="C152" s="14"/>
       <c r="D152" s="5"/>
@@ -5152,10 +5149,10 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="54">
+      <c r="A153" s="39">
         <v>149</v>
       </c>
-      <c r="B153" s="46" t="s">
+      <c r="B153" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C153" s="14"/>
@@ -5173,10 +5170,10 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="54">
+      <c r="A154" s="39">
         <v>150</v>
       </c>
-      <c r="B154" s="46" t="s">
+      <c r="B154" s="34" t="s">
         <v>143</v>
       </c>
       <c r="C154" s="14"/>
@@ -5190,11 +5187,11 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="55">
+      <c r="A155" s="40">
         <v>151</v>
       </c>
-      <c r="B155" s="46" t="s">
-        <v>432</v>
+      <c r="B155" s="34" t="s">
+        <v>431</v>
       </c>
       <c r="C155" s="14"/>
       <c r="D155" s="5"/>
@@ -5212,10 +5209,10 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="54">
+      <c r="A156" s="39">
         <v>152</v>
       </c>
-      <c r="B156" s="46" t="s">
+      <c r="B156" s="34" t="s">
         <v>144</v>
       </c>
       <c r="C156" s="14"/>
@@ -5229,10 +5226,10 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="54">
+      <c r="A157" s="39">
         <v>153</v>
       </c>
-      <c r="B157" s="46" t="s">
+      <c r="B157" s="34" t="s">
         <v>145</v>
       </c>
       <c r="C157" s="14"/>
@@ -5250,11 +5247,11 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="54">
+      <c r="A158" s="39">
         <v>154</v>
       </c>
-      <c r="B158" s="46" t="s">
-        <v>435</v>
+      <c r="B158" s="34" t="s">
+        <v>434</v>
       </c>
       <c r="C158" s="14"/>
       <c r="D158" s="5"/>
@@ -5271,10 +5268,10 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="55">
+      <c r="A159" s="40">
         <v>155</v>
       </c>
-      <c r="B159" s="46" t="s">
+      <c r="B159" s="34" t="s">
         <v>146</v>
       </c>
       <c r="C159" s="14"/>
@@ -5288,10 +5285,10 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="54">
+      <c r="A160" s="39">
         <v>156</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C160" s="14"/>
@@ -5310,10 +5307,10 @@
       </c>
     </row>
     <row r="161" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="54">
+      <c r="A161" s="39">
         <v>157</v>
       </c>
-      <c r="B161" s="46" t="s">
+      <c r="B161" s="34" t="s">
         <v>74</v>
       </c>
       <c r="C161" s="14"/>
@@ -5327,10 +5324,10 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="54">
+      <c r="A162" s="39">
         <v>158</v>
       </c>
-      <c r="B162" s="46" t="s">
+      <c r="B162" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C162" s="14"/>
@@ -5349,10 +5346,10 @@
       <c r="J162" s="21"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="55">
+      <c r="A163" s="40">
         <v>159</v>
       </c>
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="34" t="s">
         <v>147</v>
       </c>
       <c r="C163" s="14"/>
@@ -5367,11 +5364,11 @@
       <c r="J163" s="21"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="54">
+      <c r="A164" s="39">
         <v>160</v>
       </c>
-      <c r="B164" s="46" t="s">
-        <v>433</v>
+      <c r="B164" s="34" t="s">
+        <v>432</v>
       </c>
       <c r="C164" s="14"/>
       <c r="D164" s="5"/>
@@ -5389,10 +5386,10 @@
       <c r="J164" s="21"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="54">
+      <c r="A165" s="39">
         <v>161</v>
       </c>
-      <c r="B165" s="46" t="s">
+      <c r="B165" s="34" t="s">
         <v>83</v>
       </c>
       <c r="C165" s="14"/>
@@ -5407,10 +5404,10 @@
       <c r="J165" s="21"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="54">
+      <c r="A166" s="39">
         <v>162</v>
       </c>
-      <c r="B166" s="46" t="s">
+      <c r="B166" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C166" s="14"/>
@@ -5425,10 +5422,10 @@
       <c r="J166" s="21"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="55">
+      <c r="A167" s="40">
         <v>163</v>
       </c>
-      <c r="B167" s="46" t="s">
+      <c r="B167" s="34" t="s">
         <v>81</v>
       </c>
       <c r="C167" s="19"/>
@@ -5443,10 +5440,10 @@
       <c r="J167" s="21"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="54">
+      <c r="A168" s="39">
         <v>164</v>
       </c>
-      <c r="B168" s="46" t="s">
+      <c r="B168" s="34" t="s">
         <v>148</v>
       </c>
       <c r="C168" s="19"/>
@@ -5461,10 +5458,10 @@
       <c r="J168" s="21"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="54">
+      <c r="A169" s="39">
         <v>165</v>
       </c>
-      <c r="B169" s="46" t="s">
+      <c r="B169" s="34" t="s">
         <v>149</v>
       </c>
       <c r="C169" s="19"/>
@@ -5484,10 +5481,10 @@
       <c r="J169" s="21"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="54">
+      <c r="A170" s="39">
         <v>166</v>
       </c>
-      <c r="B170" s="46" t="s">
+      <c r="B170" s="34" t="s">
         <v>150</v>
       </c>
       <c r="C170" s="19"/>
@@ -5508,10 +5505,10 @@
       <c r="J170" s="21"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="55">
+      <c r="A171" s="40">
         <v>167</v>
       </c>
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="34" t="s">
         <v>151</v>
       </c>
       <c r="C171" s="19"/>
@@ -5532,10 +5529,10 @@
       <c r="J171" s="21"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="54">
+      <c r="A172" s="39">
         <v>168</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C172" s="19"/>
@@ -5550,11 +5547,11 @@
       <c r="J172" s="21"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="54">
+      <c r="A173" s="39">
         <v>169</v>
       </c>
-      <c r="B173" s="46" t="s">
-        <v>457</v>
+      <c r="B173" s="34" t="s">
+        <v>456</v>
       </c>
       <c r="C173" s="19"/>
       <c r="D173" s="12"/>
@@ -5573,10 +5570,10 @@
       <c r="J173" s="21"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="54">
+      <c r="A174" s="39">
         <v>170</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="34" t="s">
         <v>152</v>
       </c>
       <c r="C174" s="19"/>
@@ -5592,11 +5589,11 @@
       <c r="J174" s="21"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="55">
+      <c r="A175" s="40">
         <v>171</v>
       </c>
-      <c r="B175" s="46" t="s">
-        <v>455</v>
+      <c r="B175" s="34" t="s">
+        <v>454</v>
       </c>
       <c r="C175" s="19"/>
       <c r="D175" s="12"/>
@@ -5615,10 +5612,10 @@
       <c r="I175" s="21"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="54">
+      <c r="A176" s="39">
         <v>172</v>
       </c>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="34" t="s">
         <v>70</v>
       </c>
       <c r="C176" s="19"/>
@@ -5638,10 +5635,10 @@
       <c r="I176" s="21"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="54">
+      <c r="A177" s="39">
         <v>173</v>
       </c>
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="34" t="s">
         <v>153</v>
       </c>
       <c r="C177" s="19"/>
@@ -5655,10 +5652,10 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="54">
+      <c r="A178" s="39">
         <v>174</v>
       </c>
-      <c r="B178" s="46" t="s">
+      <c r="B178" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C178" s="19"/>
@@ -5672,10 +5669,10 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="55">
+      <c r="A179" s="40">
         <v>175</v>
       </c>
-      <c r="B179" s="46" t="s">
+      <c r="B179" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C179" s="19"/>
@@ -5689,10 +5686,10 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="54">
+      <c r="A180" s="39">
         <v>176</v>
       </c>
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C180" s="19"/>
@@ -5706,10 +5703,10 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="54">
+      <c r="A181" s="39">
         <v>177</v>
       </c>
-      <c r="B181" s="46" t="s">
+      <c r="B181" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C181" s="19"/>
@@ -5728,10 +5725,10 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="54">
+      <c r="A182" s="39">
         <v>178</v>
       </c>
-      <c r="B182" s="46" t="s">
+      <c r="B182" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="19"/>
@@ -5745,10 +5742,10 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="55">
+      <c r="A183" s="40">
         <v>179</v>
       </c>
-      <c r="B183" s="46" t="s">
+      <c r="B183" s="34" t="s">
         <v>154</v>
       </c>
       <c r="C183" s="19"/>
@@ -5762,10 +5759,10 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="54">
+      <c r="A184" s="39">
         <v>180</v>
       </c>
-      <c r="B184" s="46" t="s">
+      <c r="B184" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C184" s="19"/>
@@ -5784,10 +5781,10 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="54">
+      <c r="A185" s="39">
         <v>181</v>
       </c>
-      <c r="B185" s="46" t="s">
+      <c r="B185" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C185" s="19"/>
@@ -5801,10 +5798,10 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="54">
+      <c r="A186" s="39">
         <v>182</v>
       </c>
-      <c r="B186" s="46" t="s">
+      <c r="B186" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C186" s="19"/>
@@ -5818,10 +5815,10 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="55">
+      <c r="A187" s="40">
         <v>183</v>
       </c>
-      <c r="B187" s="46" t="s">
+      <c r="B187" s="34" t="s">
         <v>155</v>
       </c>
       <c r="C187" s="19"/>
@@ -5840,10 +5837,10 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="54">
+      <c r="A188" s="39">
         <v>184</v>
       </c>
-      <c r="B188" s="46" t="s">
+      <c r="B188" s="34" t="s">
         <v>156</v>
       </c>
       <c r="C188" s="19"/>
@@ -5862,15 +5859,15 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="54">
+      <c r="A189" s="39">
         <v>185</v>
       </c>
-      <c r="B189" s="46" t="s">
+      <c r="B189" s="34" t="s">
         <v>157</v>
       </c>
       <c r="C189" s="29"/>
       <c r="D189" s="30"/>
-      <c r="E189" s="43"/>
+      <c r="E189" s="31"/>
       <c r="F189" s="12"/>
       <c r="G189" s="20"/>
       <c r="H189" s="15">
@@ -5879,10 +5876,10 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="54">
+      <c r="A190" s="39">
         <v>186</v>
       </c>
-      <c r="B190" s="46" t="s">
+      <c r="B190" s="34" t="s">
         <v>158</v>
       </c>
       <c r="C190" s="19"/>
@@ -5901,10 +5898,10 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="55">
+      <c r="A191" s="40">
         <v>187</v>
       </c>
-      <c r="B191" s="46" t="s">
+      <c r="B191" s="34" t="s">
         <v>159</v>
       </c>
       <c r="C191" s="19"/>
@@ -5923,10 +5920,10 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="54">
+      <c r="A192" s="39">
         <v>188</v>
       </c>
-      <c r="B192" s="46" t="s">
+      <c r="B192" s="34" t="s">
         <v>160</v>
       </c>
       <c r="C192" s="19"/>
@@ -5940,10 +5937,10 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="54">
+      <c r="A193" s="39">
         <v>189</v>
       </c>
-      <c r="B193" s="46" t="s">
+      <c r="B193" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C193" s="19"/>
@@ -5957,10 +5954,10 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="54">
+      <c r="A194" s="39">
         <v>190</v>
       </c>
-      <c r="B194" s="46" t="s">
+      <c r="B194" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C194" s="19"/>
@@ -5974,10 +5971,10 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="55">
+      <c r="A195" s="40">
         <v>191</v>
       </c>
-      <c r="B195" s="46" t="s">
+      <c r="B195" s="34" t="s">
         <v>161</v>
       </c>
       <c r="C195" s="19"/>
@@ -5996,10 +5993,10 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="54">
+      <c r="A196" s="39">
         <v>192</v>
       </c>
-      <c r="B196" s="46" t="s">
+      <c r="B196" s="34" t="s">
         <v>69</v>
       </c>
       <c r="C196" s="19"/>
@@ -6013,10 +6010,10 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="54">
+      <c r="A197" s="39">
         <v>193</v>
       </c>
-      <c r="B197" s="46" t="s">
+      <c r="B197" s="34" t="s">
         <v>162</v>
       </c>
       <c r="C197" s="19"/>
@@ -6035,10 +6032,10 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="54">
+      <c r="A198" s="39">
         <v>194</v>
       </c>
-      <c r="B198" s="46" t="s">
+      <c r="B198" s="34" t="s">
         <v>163</v>
       </c>
       <c r="C198" s="19"/>
@@ -6057,10 +6054,10 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="55">
+      <c r="A199" s="40">
         <v>195</v>
       </c>
-      <c r="B199" s="46" t="s">
+      <c r="B199" s="34" t="s">
         <v>164</v>
       </c>
       <c r="C199" s="19"/>
@@ -6079,11 +6076,11 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="54">
+      <c r="A200" s="39">
         <v>196</v>
       </c>
-      <c r="B200" s="46" t="s">
-        <v>444</v>
+      <c r="B200" s="34" t="s">
+        <v>443</v>
       </c>
       <c r="C200" s="19"/>
       <c r="D200" s="12"/>
@@ -6101,11 +6098,11 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="54">
+      <c r="A201" s="39">
         <v>197</v>
       </c>
-      <c r="B201" s="46" t="s">
-        <v>445</v>
+      <c r="B201" s="34" t="s">
+        <v>444</v>
       </c>
       <c r="C201" s="19"/>
       <c r="D201" s="12"/>
@@ -6123,10 +6120,10 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="54">
+      <c r="A202" s="39">
         <v>198</v>
       </c>
-      <c r="B202" s="46" t="s">
+      <c r="B202" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C202" s="19"/>
@@ -6145,10 +6142,10 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="55">
+      <c r="A203" s="40">
         <v>199</v>
       </c>
-      <c r="B203" s="46" t="s">
+      <c r="B203" s="34" t="s">
         <v>64</v>
       </c>
       <c r="C203" s="19"/>
@@ -6167,10 +6164,10 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="54">
+      <c r="A204" s="39">
         <v>200</v>
       </c>
-      <c r="B204" s="46" t="s">
+      <c r="B204" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C204" s="19"/>
@@ -6189,10 +6186,10 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="54">
+      <c r="A205" s="39">
         <v>201</v>
       </c>
-      <c r="B205" s="46" t="s">
+      <c r="B205" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C205" s="19"/>
@@ -6206,10 +6203,10 @@
       </c>
     </row>
     <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="54">
+      <c r="A206" s="39">
         <v>202</v>
       </c>
-      <c r="B206" s="46" t="s">
+      <c r="B206" s="34" t="s">
         <v>165</v>
       </c>
       <c r="C206" s="19"/>
@@ -6223,10 +6220,10 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="55">
+      <c r="A207" s="40">
         <v>203</v>
       </c>
-      <c r="B207" s="46" t="s">
+      <c r="B207" s="34" t="s">
         <v>248</v>
       </c>
       <c r="C207" s="16"/>
@@ -6245,10 +6242,10 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="54">
+      <c r="A208" s="39">
         <v>204</v>
       </c>
-      <c r="B208" s="46" t="s">
+      <c r="B208" s="34" t="s">
         <v>366</v>
       </c>
       <c r="C208" s="14"/>
@@ -6262,15 +6259,15 @@
         <v>120</v>
       </c>
       <c r="H208" s="15">
-        <f t="shared" ref="H208:H216" si="9">E208*G208</f>
+        <f t="shared" ref="H208:H217" si="9">E208*G208</f>
         <v>11347.2</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="54">
+      <c r="A209" s="39">
         <v>205</v>
       </c>
-      <c r="B209" s="46" t="s">
+      <c r="B209" s="34" t="s">
         <v>249</v>
       </c>
       <c r="C209" s="14"/>
@@ -6284,10 +6281,10 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="54">
+      <c r="A210" s="39">
         <v>206</v>
       </c>
-      <c r="B210" s="46" t="s">
+      <c r="B210" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C210" s="14"/>
@@ -6306,10 +6303,10 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="55">
+      <c r="A211" s="40">
         <v>207</v>
       </c>
-      <c r="B211" s="46" t="s">
+      <c r="B211" s="34" t="s">
         <v>185</v>
       </c>
       <c r="C211" s="14"/>
@@ -6328,10 +6325,10 @@
       </c>
     </row>
     <row r="212" spans="1:8" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A212" s="54">
+      <c r="A212" s="39">
         <v>208</v>
       </c>
-      <c r="B212" s="46" t="s">
+      <c r="B212" s="34" t="s">
         <v>172</v>
       </c>
       <c r="C212" s="14"/>
@@ -6350,10 +6347,10 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="54">
+      <c r="A213" s="39">
         <v>209</v>
       </c>
-      <c r="B213" s="46" t="s">
+      <c r="B213" s="34" t="s">
         <v>182</v>
       </c>
       <c r="C213" s="14"/>
@@ -6372,10 +6369,10 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="54">
+      <c r="A214" s="39">
         <v>210</v>
       </c>
-      <c r="B214" s="46" t="s">
+      <c r="B214" s="34" t="s">
         <v>181</v>
       </c>
       <c r="C214" s="14"/>
@@ -6389,10 +6386,10 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="55">
+      <c r="A215" s="40">
         <v>211</v>
       </c>
-      <c r="B215" s="46" t="s">
+      <c r="B215" s="34" t="s">
         <v>251</v>
       </c>
       <c r="C215" s="14"/>
@@ -6411,10 +6408,10 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="54">
+      <c r="A216" s="39">
         <v>212</v>
       </c>
-      <c r="B216" s="46" t="s">
+      <c r="B216" s="34" t="s">
         <v>252</v>
       </c>
       <c r="C216" s="14"/>
@@ -6428,10 +6425,10 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="54">
+      <c r="A217" s="39">
         <v>213</v>
       </c>
-      <c r="B217" s="46" t="s">
+      <c r="B217" s="34" t="s">
         <v>253</v>
       </c>
       <c r="C217" s="14"/>
@@ -6439,13 +6436,16 @@
       <c r="E217" s="19"/>
       <c r="F217" s="5"/>
       <c r="G217" s="15"/>
-      <c r="H217" s="15"/>
+      <c r="H217" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="54">
+      <c r="A218" s="39">
         <v>214</v>
       </c>
-      <c r="B218" s="46" t="s">
+      <c r="B218" s="34" t="s">
         <v>254</v>
       </c>
       <c r="C218" s="14"/>
@@ -6464,10 +6464,10 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="55">
+      <c r="A219" s="40">
         <v>215</v>
       </c>
-      <c r="B219" s="46" t="s">
+      <c r="B219" s="34" t="s">
         <v>214</v>
       </c>
       <c r="C219" s="14"/>
@@ -6486,10 +6486,10 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="54">
+      <c r="A220" s="39">
         <v>216</v>
       </c>
-      <c r="B220" s="46" t="s">
+      <c r="B220" s="34" t="s">
         <v>234</v>
       </c>
       <c r="C220" s="14"/>
@@ -6503,10 +6503,10 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="54">
+      <c r="A221" s="39">
         <v>217</v>
       </c>
-      <c r="B221" s="46" t="s">
+      <c r="B221" s="34" t="s">
         <v>255</v>
       </c>
       <c r="C221" s="14"/>
@@ -6525,10 +6525,10 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="54">
+      <c r="A222" s="39">
         <v>218</v>
       </c>
-      <c r="B222" s="46" t="s">
+      <c r="B222" s="34" t="s">
         <v>256</v>
       </c>
       <c r="C222" s="14"/>
@@ -6547,10 +6547,10 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="55">
+      <c r="A223" s="40">
         <v>219</v>
       </c>
-      <c r="B223" s="46" t="s">
+      <c r="B223" s="34" t="s">
         <v>257</v>
       </c>
       <c r="C223" s="14"/>
@@ -6569,10 +6569,10 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="54">
+      <c r="A224" s="39">
         <v>220</v>
       </c>
-      <c r="B224" s="46" t="s">
+      <c r="B224" s="34" t="s">
         <v>258</v>
       </c>
       <c r="C224" s="14"/>
@@ -6591,10 +6591,10 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="54">
+      <c r="A225" s="39">
         <v>221</v>
       </c>
-      <c r="B225" s="46" t="s">
+      <c r="B225" s="34" t="s">
         <v>259</v>
       </c>
       <c r="C225" s="14"/>
@@ -6613,10 +6613,10 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="54">
+      <c r="A226" s="39">
         <v>222</v>
       </c>
-      <c r="B226" s="46" t="s">
+      <c r="B226" s="34" t="s">
         <v>260</v>
       </c>
       <c r="C226" s="14"/>
@@ -6630,10 +6630,10 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="55">
+      <c r="A227" s="40">
         <v>223</v>
       </c>
-      <c r="B227" s="46" t="s">
+      <c r="B227" s="34" t="s">
         <v>249</v>
       </c>
       <c r="C227" s="14"/>
@@ -6647,10 +6647,10 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="54">
+      <c r="A228" s="39">
         <v>224</v>
       </c>
-      <c r="B228" s="46" t="s">
+      <c r="B228" s="34" t="s">
         <v>261</v>
       </c>
       <c r="C228" s="14"/>
@@ -6664,10 +6664,10 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="54">
+      <c r="A229" s="39">
         <v>225</v>
       </c>
-      <c r="B229" s="46" t="s">
+      <c r="B229" s="34" t="s">
         <v>251</v>
       </c>
       <c r="C229" s="14"/>
@@ -6681,10 +6681,10 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="54">
+      <c r="A230" s="39">
         <v>226</v>
       </c>
-      <c r="B230" s="46" t="s">
+      <c r="B230" s="34" t="s">
         <v>218</v>
       </c>
       <c r="C230" s="14"/>
@@ -6703,10 +6703,10 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="55">
+      <c r="A231" s="40">
         <v>227</v>
       </c>
-      <c r="B231" s="46" t="s">
+      <c r="B231" s="34" t="s">
         <v>262</v>
       </c>
       <c r="C231" s="14"/>
@@ -6720,10 +6720,10 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="54">
+      <c r="A232" s="39">
         <v>228</v>
       </c>
-      <c r="B232" s="46" t="s">
+      <c r="B232" s="34" t="s">
         <v>263</v>
       </c>
       <c r="C232" s="14"/>
@@ -6737,10 +6737,10 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="54">
+      <c r="A233" s="39">
         <v>229</v>
       </c>
-      <c r="B233" s="46" t="s">
+      <c r="B233" s="34" t="s">
         <v>264</v>
       </c>
       <c r="C233" s="14"/>
@@ -6759,10 +6759,10 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="54">
+      <c r="A234" s="39">
         <v>230</v>
       </c>
-      <c r="B234" s="46" t="s">
+      <c r="B234" s="34" t="s">
         <v>203</v>
       </c>
       <c r="C234" s="14"/>
@@ -6781,10 +6781,10 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="55">
+      <c r="A235" s="40">
         <v>231</v>
       </c>
-      <c r="B235" s="46" t="s">
+      <c r="B235" s="34" t="s">
         <v>314</v>
       </c>
       <c r="C235" s="14"/>
@@ -6803,10 +6803,10 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="54">
+      <c r="A236" s="39">
         <v>232</v>
       </c>
-      <c r="B236" s="46" t="s">
+      <c r="B236" s="34" t="s">
         <v>265</v>
       </c>
       <c r="C236" s="14"/>
@@ -6820,10 +6820,10 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="54">
+      <c r="A237" s="39">
         <v>233</v>
       </c>
-      <c r="B237" s="46" t="s">
+      <c r="B237" s="34" t="s">
         <v>266</v>
       </c>
       <c r="C237" s="14"/>
@@ -6842,10 +6842,10 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="54">
+      <c r="A238" s="39">
         <v>234</v>
       </c>
-      <c r="B238" s="46" t="s">
+      <c r="B238" s="34" t="s">
         <v>262</v>
       </c>
       <c r="C238" s="14"/>
@@ -6859,10 +6859,10 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="55">
+      <c r="A239" s="40">
         <v>235</v>
       </c>
-      <c r="B239" s="46" t="s">
+      <c r="B239" s="34" t="s">
         <v>267</v>
       </c>
       <c r="C239" s="14"/>
@@ -6881,10 +6881,10 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="54">
+      <c r="A240" s="39">
         <v>236</v>
       </c>
-      <c r="B240" s="46" t="s">
+      <c r="B240" s="34" t="s">
         <v>174</v>
       </c>
       <c r="C240" s="14"/>
@@ -6903,10 +6903,10 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="54">
+      <c r="A241" s="39">
         <v>237</v>
       </c>
-      <c r="B241" s="46" t="s">
+      <c r="B241" s="34" t="s">
         <v>229</v>
       </c>
       <c r="C241" s="14"/>
@@ -6920,10 +6920,10 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="54">
+      <c r="A242" s="39">
         <v>238</v>
       </c>
-      <c r="B242" s="46" t="s">
+      <c r="B242" s="34" t="s">
         <v>263</v>
       </c>
       <c r="C242" s="14"/>
@@ -6942,10 +6942,10 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="55">
+      <c r="A243" s="40">
         <v>239</v>
       </c>
-      <c r="B243" s="46" t="s">
+      <c r="B243" s="34" t="s">
         <v>264</v>
       </c>
       <c r="C243" s="14"/>
@@ -6959,10 +6959,10 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="54">
+      <c r="A244" s="39">
         <v>240</v>
       </c>
-      <c r="B244" s="46" t="s">
+      <c r="B244" s="34" t="s">
         <v>181</v>
       </c>
       <c r="C244" s="14"/>
@@ -6976,10 +6976,10 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="54">
+      <c r="A245" s="39">
         <v>241</v>
       </c>
-      <c r="B245" s="46" t="s">
+      <c r="B245" s="34" t="s">
         <v>315</v>
       </c>
       <c r="C245" s="14"/>
@@ -6993,10 +6993,10 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="54">
+      <c r="A246" s="39">
         <v>242</v>
       </c>
-      <c r="B246" s="46" t="s">
+      <c r="B246" s="34" t="s">
         <v>268</v>
       </c>
       <c r="C246" s="14"/>
@@ -7010,10 +7010,10 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="55">
+      <c r="A247" s="40">
         <v>243</v>
       </c>
-      <c r="B247" s="46" t="s">
+      <c r="B247" s="34" t="s">
         <v>214</v>
       </c>
       <c r="C247" s="14"/>
@@ -7027,11 +7027,11 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="54">
+      <c r="A248" s="39">
         <v>244</v>
       </c>
-      <c r="B248" s="46" t="s">
-        <v>396</v>
+      <c r="B248" s="34" t="s">
+        <v>395</v>
       </c>
       <c r="C248" s="14"/>
       <c r="D248" s="5"/>
@@ -7044,10 +7044,10 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="54">
+      <c r="A249" s="39">
         <v>245</v>
       </c>
-      <c r="B249" s="46" t="s">
+      <c r="B249" s="34" t="s">
         <v>209</v>
       </c>
       <c r="C249" s="14"/>
@@ -7066,10 +7066,10 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="54">
+      <c r="A250" s="39">
         <v>246</v>
       </c>
-      <c r="B250" s="46" t="s">
+      <c r="B250" s="34" t="s">
         <v>370</v>
       </c>
       <c r="C250" s="14"/>
@@ -7088,10 +7088,10 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="55">
+      <c r="A251" s="40">
         <v>247</v>
       </c>
-      <c r="B251" s="46" t="s">
+      <c r="B251" s="34" t="s">
         <v>270</v>
       </c>
       <c r="C251" s="14"/>
@@ -7110,10 +7110,10 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="54">
+      <c r="A252" s="39">
         <v>248</v>
       </c>
-      <c r="B252" s="46" t="s">
+      <c r="B252" s="34" t="s">
         <v>271</v>
       </c>
       <c r="C252" s="14"/>
@@ -7132,10 +7132,10 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="54">
+      <c r="A253" s="39">
         <v>249</v>
       </c>
-      <c r="B253" s="46" t="s">
+      <c r="B253" s="34" t="s">
         <v>272</v>
       </c>
       <c r="C253" s="14"/>
@@ -7149,10 +7149,10 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="54">
+      <c r="A254" s="39">
         <v>250</v>
       </c>
-      <c r="B254" s="46" t="s">
+      <c r="B254" s="34" t="s">
         <v>273</v>
       </c>
       <c r="C254" s="14"/>
@@ -7171,10 +7171,10 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="55">
+      <c r="A255" s="40">
         <v>251</v>
       </c>
-      <c r="B255" s="46" t="s">
+      <c r="B255" s="34" t="s">
         <v>274</v>
       </c>
       <c r="C255" s="14"/>
@@ -7193,29 +7193,31 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="54">
+      <c r="A256" s="39">
         <v>252</v>
       </c>
-      <c r="B256" s="46" t="s">
+      <c r="B256" s="34" t="s">
         <v>267</v>
       </c>
       <c r="C256" s="14"/>
       <c r="D256" s="5"/>
-      <c r="E256" s="19" t="s">
-        <v>376</v>
+      <c r="E256" s="19">
+        <v>0</v>
       </c>
       <c r="F256" s="5"/>
-      <c r="G256" s="15"/>
-      <c r="H256" s="15" t="e">
+      <c r="G256" s="15">
+        <v>0</v>
+      </c>
+      <c r="H256" s="15">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="54">
+      <c r="A257" s="39">
         <v>253</v>
       </c>
-      <c r="B257" s="46" t="s">
+      <c r="B257" s="34" t="s">
         <v>275</v>
       </c>
       <c r="C257" s="14"/>
@@ -7229,10 +7231,10 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="54">
+      <c r="A258" s="39">
         <v>254</v>
       </c>
-      <c r="B258" s="46" t="s">
+      <c r="B258" s="34" t="s">
         <v>208</v>
       </c>
       <c r="C258" s="14"/>
@@ -7251,10 +7253,10 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="55">
+      <c r="A259" s="40">
         <v>255</v>
       </c>
-      <c r="B259" s="46" t="s">
+      <c r="B259" s="34" t="s">
         <v>215</v>
       </c>
       <c r="C259" s="14"/>
@@ -7268,10 +7270,10 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="54">
+      <c r="A260" s="39">
         <v>256</v>
       </c>
-      <c r="B260" s="46" t="s">
+      <c r="B260" s="34" t="s">
         <v>277</v>
       </c>
       <c r="C260" s="14"/>
@@ -7285,10 +7287,10 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="54">
+      <c r="A261" s="39">
         <v>257</v>
       </c>
-      <c r="B261" s="46" t="s">
+      <c r="B261" s="34" t="s">
         <v>229</v>
       </c>
       <c r="C261" s="14"/>
@@ -7302,10 +7304,10 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="54">
+      <c r="A262" s="39">
         <v>258</v>
       </c>
-      <c r="B262" s="46" t="s">
+      <c r="B262" s="34" t="s">
         <v>203</v>
       </c>
       <c r="C262" s="14"/>
@@ -7324,10 +7326,10 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="55">
+      <c r="A263" s="40">
         <v>259</v>
       </c>
-      <c r="B263" s="46" t="s">
+      <c r="B263" s="34" t="s">
         <v>278</v>
       </c>
       <c r="C263" s="14"/>
@@ -7346,10 +7348,10 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="54">
+      <c r="A264" s="39">
         <v>260</v>
       </c>
-      <c r="B264" s="46" t="s">
+      <c r="B264" s="34" t="s">
         <v>174</v>
       </c>
       <c r="C264" s="14"/>
@@ -7368,10 +7370,10 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="54">
+      <c r="A265" s="39">
         <v>261</v>
       </c>
-      <c r="B265" s="46" t="s">
+      <c r="B265" s="34" t="s">
         <v>279</v>
       </c>
       <c r="C265" s="14"/>
@@ -7385,10 +7387,10 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="54">
+      <c r="A266" s="39">
         <v>262</v>
       </c>
-      <c r="B266" s="46" t="s">
+      <c r="B266" s="34" t="s">
         <v>276</v>
       </c>
       <c r="C266" s="14"/>
@@ -7402,10 +7404,10 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="55">
+      <c r="A267" s="40">
         <v>263</v>
       </c>
-      <c r="B267" s="46" t="s">
+      <c r="B267" s="34" t="s">
         <v>275</v>
       </c>
       <c r="C267" s="14"/>
@@ -7424,10 +7426,10 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="54">
+      <c r="A268" s="39">
         <v>264</v>
       </c>
-      <c r="B268" s="46" t="s">
+      <c r="B268" s="34" t="s">
         <v>269</v>
       </c>
       <c r="C268" s="14"/>
@@ -7441,11 +7443,11 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="54">
+      <c r="A269" s="39">
         <v>265</v>
       </c>
-      <c r="B269" s="46" t="s">
-        <v>396</v>
+      <c r="B269" s="34" t="s">
+        <v>395</v>
       </c>
       <c r="C269" s="14"/>
       <c r="D269" s="5"/>
@@ -7463,10 +7465,10 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="54">
+      <c r="A270" s="39">
         <v>266</v>
       </c>
-      <c r="B270" s="46" t="s">
+      <c r="B270" s="34" t="s">
         <v>280</v>
       </c>
       <c r="C270" s="14"/>
@@ -7480,10 +7482,10 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="55">
+      <c r="A271" s="40">
         <v>267</v>
       </c>
-      <c r="B271" s="46" t="s">
+      <c r="B271" s="34" t="s">
         <v>263</v>
       </c>
       <c r="C271" s="14"/>
@@ -7497,10 +7499,10 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="54">
+      <c r="A272" s="39">
         <v>268</v>
       </c>
-      <c r="B272" s="46" t="s">
+      <c r="B272" s="34" t="s">
         <v>213</v>
       </c>
       <c r="C272" s="14"/>
@@ -7514,10 +7516,10 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="54">
+      <c r="A273" s="39">
         <v>269</v>
       </c>
-      <c r="B273" s="46" t="s">
+      <c r="B273" s="34" t="s">
         <v>220</v>
       </c>
       <c r="C273" s="14"/>
@@ -7531,10 +7533,10 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="54">
+      <c r="A274" s="39">
         <v>270</v>
       </c>
-      <c r="B274" s="46" t="s">
+      <c r="B274" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C274" s="14"/>
@@ -7548,10 +7550,10 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="55">
+      <c r="A275" s="40">
         <v>271</v>
       </c>
-      <c r="B275" s="46" t="s">
+      <c r="B275" s="34" t="s">
         <v>281</v>
       </c>
       <c r="C275" s="14"/>
@@ -7565,11 +7567,11 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="54">
+      <c r="A276" s="39">
         <v>272</v>
       </c>
-      <c r="B276" s="46" t="s">
-        <v>423</v>
+      <c r="B276" s="34" t="s">
+        <v>422</v>
       </c>
       <c r="C276" s="14"/>
       <c r="D276" s="5"/>
@@ -7587,10 +7589,10 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="54">
+      <c r="A277" s="39">
         <v>273</v>
       </c>
-      <c r="B277" s="46" t="s">
+      <c r="B277" s="34" t="s">
         <v>341</v>
       </c>
       <c r="C277" s="14"/>
@@ -7609,10 +7611,10 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="54">
+      <c r="A278" s="39">
         <v>274</v>
       </c>
-      <c r="B278" s="46" t="s">
+      <c r="B278" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C278" s="14"/>
@@ -7626,10 +7628,10 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="55">
+      <c r="A279" s="40">
         <v>275</v>
       </c>
-      <c r="B279" s="46" t="s">
+      <c r="B279" s="34" t="s">
         <v>365</v>
       </c>
       <c r="C279" s="14"/>
@@ -7648,10 +7650,10 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="54">
+      <c r="A280" s="39">
         <v>276</v>
       </c>
-      <c r="B280" s="46" t="s">
+      <c r="B280" s="34" t="s">
         <v>282</v>
       </c>
       <c r="C280" s="14"/>
@@ -7665,10 +7667,10 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="54">
+      <c r="A281" s="39">
         <v>277</v>
       </c>
-      <c r="B281" s="46" t="s">
+      <c r="B281" s="34" t="s">
         <v>283</v>
       </c>
       <c r="C281" s="14"/>
@@ -7687,10 +7689,10 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="54">
+      <c r="A282" s="39">
         <v>278</v>
       </c>
-      <c r="B282" s="46" t="s">
+      <c r="B282" s="34" t="s">
         <v>284</v>
       </c>
       <c r="C282" s="14"/>
@@ -7708,10 +7710,10 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="55">
+      <c r="A283" s="40">
         <v>279</v>
       </c>
-      <c r="B283" s="46" t="s">
+      <c r="B283" s="34" t="s">
         <v>209</v>
       </c>
       <c r="C283" s="14"/>
@@ -7725,10 +7727,10 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="54">
+      <c r="A284" s="39">
         <v>280</v>
       </c>
-      <c r="B284" s="46" t="s">
+      <c r="B284" s="34" t="s">
         <v>364</v>
       </c>
       <c r="C284" s="14"/>
@@ -7747,10 +7749,10 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="54">
+      <c r="A285" s="39">
         <v>281</v>
       </c>
-      <c r="B285" s="46" t="s">
+      <c r="B285" s="34" t="s">
         <v>219</v>
       </c>
       <c r="C285" s="14"/>
@@ -7769,11 +7771,11 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="54">
+      <c r="A286" s="39">
         <v>282</v>
       </c>
-      <c r="B286" s="46" t="s">
-        <v>415</v>
+      <c r="B286" s="34" t="s">
+        <v>414</v>
       </c>
       <c r="C286" s="14"/>
       <c r="D286" s="5"/>
@@ -7791,10 +7793,10 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="55">
+      <c r="A287" s="40">
         <v>283</v>
       </c>
-      <c r="B287" s="46" t="s">
+      <c r="B287" s="34" t="s">
         <v>178</v>
       </c>
       <c r="C287" s="14"/>
@@ -7813,10 +7815,10 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="54">
+      <c r="A288" s="39">
         <v>284</v>
       </c>
-      <c r="B288" s="46" t="s">
+      <c r="B288" s="34" t="s">
         <v>285</v>
       </c>
       <c r="C288" s="14"/>
@@ -7830,10 +7832,10 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="54">
+      <c r="A289" s="39">
         <v>285</v>
       </c>
-      <c r="B289" s="46" t="s">
+      <c r="B289" s="34" t="s">
         <v>286</v>
       </c>
       <c r="C289" s="14"/>
@@ -7852,10 +7854,10 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="54">
+      <c r="A290" s="39">
         <v>286</v>
       </c>
-      <c r="B290" s="46" t="s">
+      <c r="B290" s="34" t="s">
         <v>287</v>
       </c>
       <c r="C290" s="14"/>
@@ -7869,10 +7871,10 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="55">
+      <c r="A291" s="40">
         <v>287</v>
       </c>
-      <c r="B291" s="46" t="s">
+      <c r="B291" s="34" t="s">
         <v>228</v>
       </c>
       <c r="C291" s="14"/>
@@ -7891,10 +7893,10 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="54">
+      <c r="A292" s="39">
         <v>288</v>
       </c>
-      <c r="B292" s="46" t="s">
+      <c r="B292" s="34" t="s">
         <v>267</v>
       </c>
       <c r="C292" s="14"/>
@@ -7908,10 +7910,10 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="54">
+      <c r="A293" s="39">
         <v>289</v>
       </c>
-      <c r="B293" s="46" t="s">
+      <c r="B293" s="34" t="s">
         <v>237</v>
       </c>
       <c r="C293" s="14"/>
@@ -7930,10 +7932,10 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="54">
+      <c r="A294" s="39">
         <v>290</v>
       </c>
-      <c r="B294" s="46" t="s">
+      <c r="B294" s="34" t="s">
         <v>288</v>
       </c>
       <c r="C294" s="14"/>
@@ -7947,10 +7949,10 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="55">
+      <c r="A295" s="40">
         <v>291</v>
       </c>
-      <c r="B295" s="46" t="s">
+      <c r="B295" s="34" t="s">
         <v>235</v>
       </c>
       <c r="C295" s="14"/>
@@ -7964,10 +7966,10 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="54">
+      <c r="A296" s="39">
         <v>292</v>
       </c>
-      <c r="B296" s="46" t="s">
+      <c r="B296" s="34" t="s">
         <v>289</v>
       </c>
       <c r="C296" s="14"/>
@@ -7984,10 +7986,10 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="54">
+      <c r="A297" s="39">
         <v>293</v>
       </c>
-      <c r="B297" s="46" t="s">
+      <c r="B297" s="34" t="s">
         <v>234</v>
       </c>
       <c r="C297" s="14"/>
@@ -8001,10 +8003,10 @@
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="54">
+      <c r="A298" s="39">
         <v>294</v>
       </c>
-      <c r="B298" s="46" t="s">
+      <c r="B298" s="34" t="s">
         <v>255</v>
       </c>
       <c r="C298" s="14"/>
@@ -8018,10 +8020,10 @@
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="55">
+      <c r="A299" s="40">
         <v>295</v>
       </c>
-      <c r="B299" s="46" t="s">
+      <c r="B299" s="34" t="s">
         <v>363</v>
       </c>
       <c r="C299" s="14"/>
@@ -8040,10 +8042,10 @@
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="54">
+      <c r="A300" s="39">
         <v>296</v>
       </c>
-      <c r="B300" s="46" t="s">
+      <c r="B300" s="34" t="s">
         <v>288</v>
       </c>
       <c r="C300" s="14"/>
@@ -8062,10 +8064,10 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="54">
+      <c r="A301" s="39">
         <v>297</v>
       </c>
-      <c r="B301" s="46" t="s">
+      <c r="B301" s="34" t="s">
         <v>228</v>
       </c>
       <c r="C301" s="14"/>
@@ -8079,10 +8081,10 @@
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="54">
+      <c r="A302" s="39">
         <v>298</v>
       </c>
-      <c r="B302" s="46" t="s">
+      <c r="B302" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C302" s="14"/>
@@ -8101,11 +8103,11 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="55">
+      <c r="A303" s="40">
         <v>299</v>
       </c>
-      <c r="B303" s="46" t="s">
-        <v>377</v>
+      <c r="B303" s="34" t="s">
+        <v>376</v>
       </c>
       <c r="C303" s="14"/>
       <c r="D303" s="5"/>
@@ -8123,10 +8125,10 @@
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="54">
+      <c r="A304" s="39">
         <v>300</v>
       </c>
-      <c r="B304" s="46" t="s">
+      <c r="B304" s="34" t="s">
         <v>172</v>
       </c>
       <c r="C304" s="14"/>
@@ -8145,10 +8147,10 @@
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="54">
+      <c r="A305" s="39">
         <v>301</v>
       </c>
-      <c r="B305" s="46" t="s">
+      <c r="B305" s="34" t="s">
         <v>290</v>
       </c>
       <c r="C305" s="14"/>
@@ -8167,10 +8169,10 @@
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="54">
+      <c r="A306" s="39">
         <v>302</v>
       </c>
-      <c r="B306" s="46" t="s">
+      <c r="B306" s="34" t="s">
         <v>291</v>
       </c>
       <c r="C306" s="14"/>
@@ -8184,10 +8186,10 @@
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="55">
+      <c r="A307" s="40">
         <v>303</v>
       </c>
-      <c r="B307" s="46" t="s">
+      <c r="B307" s="34" t="s">
         <v>292</v>
       </c>
       <c r="C307" s="14"/>
@@ -8201,10 +8203,10 @@
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="54">
+      <c r="A308" s="39">
         <v>304</v>
       </c>
-      <c r="B308" s="46" t="s">
+      <c r="B308" s="34" t="s">
         <v>293</v>
       </c>
       <c r="C308" s="14"/>
@@ -8223,10 +8225,10 @@
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="54">
+      <c r="A309" s="39">
         <v>305</v>
       </c>
-      <c r="B309" s="46" t="s">
+      <c r="B309" s="34" t="s">
         <v>294</v>
       </c>
       <c r="C309" s="14"/>
@@ -8245,10 +8247,10 @@
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="54">
+      <c r="A310" s="39">
         <v>306</v>
       </c>
-      <c r="B310" s="46" t="s">
+      <c r="B310" s="34" t="s">
         <v>295</v>
       </c>
       <c r="C310" s="14"/>
@@ -8267,10 +8269,10 @@
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="55">
+      <c r="A311" s="40">
         <v>307</v>
       </c>
-      <c r="B311" s="46" t="s">
+      <c r="B311" s="34" t="s">
         <v>296</v>
       </c>
       <c r="C311" s="14"/>
@@ -8289,10 +8291,10 @@
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="54">
+      <c r="A312" s="39">
         <v>308</v>
       </c>
-      <c r="B312" s="46" t="s">
+      <c r="B312" s="34" t="s">
         <v>277</v>
       </c>
       <c r="C312" s="14"/>
@@ -8306,10 +8308,10 @@
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="54">
+      <c r="A313" s="39">
         <v>309</v>
       </c>
-      <c r="B313" s="46" t="s">
+      <c r="B313" s="34" t="s">
         <v>297</v>
       </c>
       <c r="C313" s="14"/>
@@ -8328,10 +8330,10 @@
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="54">
+      <c r="A314" s="39">
         <v>310</v>
       </c>
-      <c r="B314" s="46" t="s">
+      <c r="B314" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C314" s="14"/>
@@ -8345,10 +8347,10 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="55">
+      <c r="A315" s="40">
         <v>311</v>
       </c>
-      <c r="B315" s="46" t="s">
+      <c r="B315" s="34" t="s">
         <v>375</v>
       </c>
       <c r="C315" s="14"/>
@@ -8367,10 +8369,10 @@
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="54">
+      <c r="A316" s="39">
         <v>312</v>
       </c>
-      <c r="B316" s="46" t="s">
+      <c r="B316" s="34" t="s">
         <v>298</v>
       </c>
       <c r="C316" s="14"/>
@@ -8384,11 +8386,11 @@
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="54">
+      <c r="A317" s="39">
         <v>313</v>
       </c>
-      <c r="B317" s="46" t="s">
-        <v>426</v>
+      <c r="B317" s="34" t="s">
+        <v>425</v>
       </c>
       <c r="C317" s="14"/>
       <c r="D317" s="5"/>
@@ -8406,10 +8408,10 @@
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A318" s="54">
+      <c r="A318" s="39">
         <v>314</v>
       </c>
-      <c r="B318" s="46" t="s">
+      <c r="B318" s="34" t="s">
         <v>299</v>
       </c>
       <c r="C318" s="14"/>
@@ -8428,11 +8430,11 @@
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" s="55">
+      <c r="A319" s="40">
         <v>315</v>
       </c>
-      <c r="B319" s="46" t="s">
-        <v>424</v>
+      <c r="B319" s="34" t="s">
+        <v>423</v>
       </c>
       <c r="C319" s="14"/>
       <c r="D319" s="5"/>
@@ -8450,10 +8452,10 @@
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="54">
+      <c r="A320" s="39">
         <v>316</v>
       </c>
-      <c r="B320" s="46" t="s">
+      <c r="B320" s="34" t="s">
         <v>300</v>
       </c>
       <c r="C320" s="14"/>
@@ -8472,10 +8474,10 @@
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A321" s="54">
+      <c r="A321" s="39">
         <v>317</v>
       </c>
-      <c r="B321" s="46" t="s">
+      <c r="B321" s="34" t="s">
         <v>290</v>
       </c>
       <c r="C321" s="14"/>
@@ -8489,10 +8491,10 @@
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A322" s="54">
+      <c r="A322" s="39">
         <v>318</v>
       </c>
-      <c r="B322" s="46" t="s">
+      <c r="B322" s="34" t="s">
         <v>301</v>
       </c>
       <c r="C322" s="14"/>
@@ -8511,10 +8513,10 @@
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A323" s="55">
+      <c r="A323" s="40">
         <v>319</v>
       </c>
-      <c r="B323" s="46" t="s">
+      <c r="B323" s="34" t="s">
         <v>302</v>
       </c>
       <c r="C323" s="14"/>
@@ -8533,10 +8535,10 @@
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="54">
+      <c r="A324" s="39">
         <v>320</v>
       </c>
-      <c r="B324" s="46" t="s">
+      <c r="B324" s="34" t="s">
         <v>303</v>
       </c>
       <c r="C324" s="14"/>
@@ -8550,10 +8552,10 @@
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" s="54">
+      <c r="A325" s="39">
         <v>321</v>
       </c>
-      <c r="B325" s="46" t="s">
+      <c r="B325" s="34" t="s">
         <v>304</v>
       </c>
       <c r="C325" s="14"/>
@@ -8567,10 +8569,10 @@
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" s="54">
+      <c r="A326" s="39">
         <v>322</v>
       </c>
-      <c r="B326" s="46" t="s">
+      <c r="B326" s="34" t="s">
         <v>305</v>
       </c>
       <c r="C326" s="14"/>
@@ -8584,10 +8586,10 @@
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" s="55">
+      <c r="A327" s="40">
         <v>323</v>
       </c>
-      <c r="B327" s="46" t="s">
+      <c r="B327" s="34" t="s">
         <v>306</v>
       </c>
       <c r="C327" s="14"/>
@@ -8601,10 +8603,10 @@
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" s="54">
+      <c r="A328" s="39">
         <v>324</v>
       </c>
-      <c r="B328" s="46" t="s">
+      <c r="B328" s="34" t="s">
         <v>307</v>
       </c>
       <c r="C328" s="14"/>
@@ -8618,10 +8620,10 @@
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" s="54">
+      <c r="A329" s="39">
         <v>325</v>
       </c>
-      <c r="B329" s="46" t="s">
+      <c r="B329" s="34" t="s">
         <v>306</v>
       </c>
       <c r="C329" s="14"/>
@@ -8635,10 +8637,10 @@
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" s="54">
+      <c r="A330" s="39">
         <v>326</v>
       </c>
-      <c r="B330" s="46" t="s">
+      <c r="B330" s="34" t="s">
         <v>178</v>
       </c>
       <c r="C330" s="14"/>
@@ -8652,10 +8654,10 @@
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" s="55">
+      <c r="A331" s="40">
         <v>327</v>
       </c>
-      <c r="B331" s="46" t="s">
+      <c r="B331" s="34" t="s">
         <v>308</v>
       </c>
       <c r="C331" s="14"/>
@@ -8674,10 +8676,10 @@
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" s="54">
+      <c r="A332" s="39">
         <v>328</v>
       </c>
-      <c r="B332" s="46" t="s">
+      <c r="B332" s="34" t="s">
         <v>291</v>
       </c>
       <c r="C332" s="14"/>
@@ -8691,10 +8693,10 @@
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" s="54">
+      <c r="A333" s="39">
         <v>329</v>
       </c>
-      <c r="B333" s="46" t="s">
+      <c r="B333" s="34" t="s">
         <v>309</v>
       </c>
       <c r="C333" s="14"/>
@@ -8708,10 +8710,10 @@
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="55">
+      <c r="A334" s="40">
         <v>331</v>
       </c>
-      <c r="B334" s="46" t="s">
+      <c r="B334" s="34" t="s">
         <v>187</v>
       </c>
       <c r="C334" s="14"/>
@@ -8725,10 +8727,10 @@
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" s="54">
+      <c r="A335" s="39">
         <v>332</v>
       </c>
-      <c r="B335" s="46" t="s">
+      <c r="B335" s="34" t="s">
         <v>310</v>
       </c>
       <c r="C335" s="14"/>
@@ -8742,10 +8744,10 @@
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" s="54">
+      <c r="A336" s="39">
         <v>333</v>
       </c>
-      <c r="B336" s="46" t="s">
+      <c r="B336" s="34" t="s">
         <v>316</v>
       </c>
       <c r="C336" s="14"/>
@@ -8764,10 +8766,10 @@
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A337" s="54">
+      <c r="A337" s="39">
         <v>334</v>
       </c>
-      <c r="B337" s="46" t="s">
+      <c r="B337" s="34" t="s">
         <v>317</v>
       </c>
       <c r="C337" s="14"/>
@@ -8786,10 +8788,10 @@
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338" s="55">
+      <c r="A338" s="40">
         <v>335</v>
       </c>
-      <c r="B338" s="46" t="s">
+      <c r="B338" s="34" t="s">
         <v>318</v>
       </c>
       <c r="C338" s="14"/>
@@ -8808,10 +8810,10 @@
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A339" s="54">
+      <c r="A339" s="39">
         <v>336</v>
       </c>
-      <c r="B339" s="46" t="s">
+      <c r="B339" s="34" t="s">
         <v>186</v>
       </c>
       <c r="C339" s="14"/>
@@ -8825,10 +8827,10 @@
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="54">
+      <c r="A340" s="39">
         <v>337</v>
       </c>
-      <c r="B340" s="46" t="s">
+      <c r="B340" s="34" t="s">
         <v>319</v>
       </c>
       <c r="C340" s="14"/>
@@ -8842,10 +8844,10 @@
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341" s="54">
+      <c r="A341" s="39">
         <v>338</v>
       </c>
-      <c r="B341" s="46" t="s">
+      <c r="B341" s="34" t="s">
         <v>320</v>
       </c>
       <c r="C341" s="14"/>
@@ -8859,10 +8861,10 @@
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A342" s="55">
+      <c r="A342" s="40">
         <v>339</v>
       </c>
-      <c r="B342" s="46" t="s">
+      <c r="B342" s="34" t="s">
         <v>321</v>
       </c>
       <c r="C342" s="14"/>
@@ -8876,10 +8878,10 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="54">
+      <c r="A343" s="39">
         <v>340</v>
       </c>
-      <c r="B343" s="46" t="s">
+      <c r="B343" s="34" t="s">
         <v>322</v>
       </c>
       <c r="C343" s="14"/>
@@ -8893,10 +8895,10 @@
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" s="54">
+      <c r="A344" s="39">
         <v>341</v>
       </c>
-      <c r="B344" s="46" t="s">
+      <c r="B344" s="34" t="s">
         <v>323</v>
       </c>
       <c r="C344" s="14"/>
@@ -8910,10 +8912,10 @@
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="54">
+      <c r="A345" s="39">
         <v>342</v>
       </c>
-      <c r="B345" s="46" t="s">
+      <c r="B345" s="34" t="s">
         <v>324</v>
       </c>
       <c r="C345" s="14"/>
@@ -8927,10 +8929,10 @@
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" s="55">
+      <c r="A346" s="40">
         <v>343</v>
       </c>
-      <c r="B346" s="46" t="s">
+      <c r="B346" s="34" t="s">
         <v>325</v>
       </c>
       <c r="C346" s="14"/>
@@ -8949,10 +8951,10 @@
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" s="54">
+      <c r="A347" s="39">
         <v>344</v>
       </c>
-      <c r="B347" s="46" t="s">
+      <c r="B347" s="34" t="s">
         <v>326</v>
       </c>
       <c r="C347" s="14"/>
@@ -8966,11 +8968,11 @@
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A348" s="54">
+      <c r="A348" s="39">
         <v>345</v>
       </c>
-      <c r="B348" s="46" t="s">
-        <v>405</v>
+      <c r="B348" s="34" t="s">
+        <v>404</v>
       </c>
       <c r="C348" s="14"/>
       <c r="D348" s="5"/>
@@ -8988,10 +8990,10 @@
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A349" s="54">
+      <c r="A349" s="39">
         <v>346</v>
       </c>
-      <c r="B349" s="46" t="s">
+      <c r="B349" s="34" t="s">
         <v>372</v>
       </c>
       <c r="C349" s="14"/>
@@ -9009,10 +9011,10 @@
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A350" s="55">
+      <c r="A350" s="40">
         <v>347</v>
       </c>
-      <c r="B350" s="46" t="s">
+      <c r="B350" s="34" t="s">
         <v>373</v>
       </c>
       <c r="C350" s="14"/>
@@ -9030,11 +9032,11 @@
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" s="54">
+      <c r="A351" s="39">
         <v>348</v>
       </c>
-      <c r="B351" s="46" t="s">
-        <v>410</v>
+      <c r="B351" s="34" t="s">
+        <v>409</v>
       </c>
       <c r="C351" s="14"/>
       <c r="D351" s="5"/>
@@ -9051,9 +9053,9 @@
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" s="54"/>
-      <c r="B352" s="46" t="s">
-        <v>407</v>
+      <c r="A352" s="39"/>
+      <c r="B352" s="34" t="s">
+        <v>406</v>
       </c>
       <c r="C352" s="14"/>
       <c r="D352" s="5"/>
@@ -9070,8 +9072,8 @@
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" s="54"/>
-      <c r="B353" s="46" t="s">
+      <c r="A353" s="39"/>
+      <c r="B353" s="34" t="s">
         <v>361</v>
       </c>
       <c r="C353" s="14"/>
@@ -9085,9 +9087,9 @@
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="54"/>
-      <c r="B354" s="46" t="s">
-        <v>404</v>
+      <c r="A354" s="39"/>
+      <c r="B354" s="34" t="s">
+        <v>403</v>
       </c>
       <c r="C354" s="14"/>
       <c r="D354" s="5"/>
@@ -9104,10 +9106,10 @@
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" s="54">
+      <c r="A355" s="39">
         <v>349</v>
       </c>
-      <c r="B355" s="46" t="s">
+      <c r="B355" s="34" t="s">
         <v>327</v>
       </c>
       <c r="C355" s="14"/>
@@ -9121,10 +9123,10 @@
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" s="54">
+      <c r="A356" s="39">
         <v>350</v>
       </c>
-      <c r="B356" s="46" t="s">
+      <c r="B356" s="34" t="s">
         <v>328</v>
       </c>
       <c r="C356" s="14"/>
@@ -9138,10 +9140,10 @@
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="55">
+      <c r="A357" s="40">
         <v>351</v>
       </c>
-      <c r="B357" s="46" t="s">
+      <c r="B357" s="34" t="s">
         <v>329</v>
       </c>
       <c r="C357" s="14"/>
@@ -9160,10 +9162,10 @@
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" s="54">
+      <c r="A358" s="39">
         <v>352</v>
       </c>
-      <c r="B358" s="46" t="s">
+      <c r="B358" s="34" t="s">
         <v>330</v>
       </c>
       <c r="C358" s="14"/>
@@ -9177,10 +9179,10 @@
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" s="54">
+      <c r="A359" s="39">
         <v>353</v>
       </c>
-      <c r="B359" s="46" t="s">
+      <c r="B359" s="34" t="s">
         <v>331</v>
       </c>
       <c r="C359" s="14"/>
@@ -9194,11 +9196,11 @@
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" s="54">
+      <c r="A360" s="39">
         <v>354</v>
       </c>
-      <c r="B360" s="46" t="s">
-        <v>411</v>
+      <c r="B360" s="34" t="s">
+        <v>410</v>
       </c>
       <c r="C360" s="14"/>
       <c r="D360" s="5"/>
@@ -9215,10 +9217,10 @@
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A361" s="55">
+      <c r="A361" s="40">
         <v>355</v>
       </c>
-      <c r="B361" s="46" t="s">
+      <c r="B361" s="34" t="s">
         <v>332</v>
       </c>
       <c r="C361" s="14"/>
@@ -9236,10 +9238,10 @@
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A362" s="54">
+      <c r="A362" s="39">
         <v>356</v>
       </c>
-      <c r="B362" s="46" t="s">
+      <c r="B362" s="34" t="s">
         <v>374</v>
       </c>
       <c r="C362" s="14"/>
@@ -9258,10 +9260,10 @@
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" s="54">
+      <c r="A363" s="39">
         <v>357</v>
       </c>
-      <c r="B363" s="46" t="s">
+      <c r="B363" s="34" t="s">
         <v>334</v>
       </c>
       <c r="C363" s="14"/>
@@ -9280,10 +9282,10 @@
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A364" s="54">
+      <c r="A364" s="39">
         <v>358</v>
       </c>
-      <c r="B364" s="46" t="s">
+      <c r="B364" s="34" t="s">
         <v>333</v>
       </c>
       <c r="C364" s="14"/>
@@ -9299,10 +9301,10 @@
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" s="55">
+      <c r="A365" s="40">
         <v>359</v>
       </c>
-      <c r="B365" s="46" t="s">
+      <c r="B365" s="34" t="s">
         <v>182</v>
       </c>
       <c r="C365" s="14"/>
@@ -9316,10 +9318,10 @@
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366" s="54">
+      <c r="A366" s="39">
         <v>360</v>
       </c>
-      <c r="B366" s="46" t="s">
+      <c r="B366" s="34" t="s">
         <v>257</v>
       </c>
       <c r="C366" s="14"/>
@@ -9333,10 +9335,10 @@
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367" s="54">
+      <c r="A367" s="39">
         <v>361</v>
       </c>
-      <c r="B367" s="46" t="s">
+      <c r="B367" s="34" t="s">
         <v>335</v>
       </c>
       <c r="C367" s="14"/>
@@ -9350,10 +9352,10 @@
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368" s="54">
+      <c r="A368" s="39">
         <v>362</v>
       </c>
-      <c r="B368" s="46" t="s">
+      <c r="B368" s="34" t="s">
         <v>215</v>
       </c>
       <c r="C368" s="14"/>
@@ -9372,10 +9374,10 @@
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A369" s="55">
+      <c r="A369" s="40">
         <v>363</v>
       </c>
-      <c r="B369" s="46" t="s">
+      <c r="B369" s="34" t="s">
         <v>336</v>
       </c>
       <c r="C369" s="14"/>
@@ -9389,10 +9391,10 @@
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370" s="54">
+      <c r="A370" s="39">
         <v>364</v>
       </c>
-      <c r="B370" s="46" t="s">
+      <c r="B370" s="34" t="s">
         <v>367</v>
       </c>
       <c r="C370" s="14"/>
@@ -9411,10 +9413,10 @@
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A371" s="54">
+      <c r="A371" s="39">
         <v>365</v>
       </c>
-      <c r="B371" s="46" t="s">
+      <c r="B371" s="34" t="s">
         <v>337</v>
       </c>
       <c r="C371" s="14"/>
@@ -9428,10 +9430,10 @@
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A372" s="54">
+      <c r="A372" s="39">
         <v>366</v>
       </c>
-      <c r="B372" s="46" t="s">
+      <c r="B372" s="34" t="s">
         <v>338</v>
       </c>
       <c r="C372" s="14"/>
@@ -9450,10 +9452,10 @@
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373" s="55">
+      <c r="A373" s="40">
         <v>367</v>
       </c>
-      <c r="B373" s="46" t="s">
+      <c r="B373" s="34" t="s">
         <v>253</v>
       </c>
       <c r="C373" s="14"/>
@@ -9472,10 +9474,10 @@
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="54">
+      <c r="A374" s="39">
         <v>368</v>
       </c>
-      <c r="B374" s="46" t="s">
+      <c r="B374" s="34" t="s">
         <v>339</v>
       </c>
       <c r="C374" s="14"/>
@@ -9494,10 +9496,10 @@
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A375" s="54">
+      <c r="A375" s="39">
         <v>369</v>
       </c>
-      <c r="B375" s="46" t="s">
+      <c r="B375" s="34" t="s">
         <v>283</v>
       </c>
       <c r="C375" s="14"/>
@@ -9511,10 +9513,10 @@
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A376" s="54">
+      <c r="A376" s="39">
         <v>370</v>
       </c>
-      <c r="B376" s="46" t="s">
+      <c r="B376" s="34" t="s">
         <v>340</v>
       </c>
       <c r="C376" s="14"/>
@@ -9533,10 +9535,10 @@
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A377" s="55">
+      <c r="A377" s="40">
         <v>371</v>
       </c>
-      <c r="B377" s="46" t="s">
+      <c r="B377" s="34" t="s">
         <v>267</v>
       </c>
       <c r="C377" s="14"/>
@@ -9550,10 +9552,10 @@
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A378" s="54">
+      <c r="A378" s="39">
         <v>372</v>
       </c>
-      <c r="B378" s="46" t="s">
+      <c r="B378" s="34" t="s">
         <v>254</v>
       </c>
       <c r="C378" s="14"/>
@@ -9567,10 +9569,10 @@
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379" s="54">
+      <c r="A379" s="39">
         <v>373</v>
       </c>
-      <c r="B379" s="46" t="s">
+      <c r="B379" s="34" t="s">
         <v>341</v>
       </c>
       <c r="C379" s="14"/>
@@ -9584,10 +9586,10 @@
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A380" s="54">
+      <c r="A380" s="39">
         <v>374</v>
       </c>
-      <c r="B380" s="46" t="s">
+      <c r="B380" s="34" t="s">
         <v>342</v>
       </c>
       <c r="C380" s="14"/>
@@ -9606,10 +9608,10 @@
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A381" s="55">
+      <c r="A381" s="40">
         <v>375</v>
       </c>
-      <c r="B381" s="46" t="s">
+      <c r="B381" s="34" t="s">
         <v>343</v>
       </c>
       <c r="C381" s="14"/>
@@ -9628,10 +9630,10 @@
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A382" s="54">
+      <c r="A382" s="39">
         <v>376</v>
       </c>
-      <c r="B382" s="46" t="s">
+      <c r="B382" s="34" t="s">
         <v>344</v>
       </c>
       <c r="C382" s="14"/>
@@ -9645,10 +9647,10 @@
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A383" s="54">
+      <c r="A383" s="39">
         <v>377</v>
       </c>
-      <c r="B383" s="46" t="s">
+      <c r="B383" s="34" t="s">
         <v>345</v>
       </c>
       <c r="C383" s="14"/>
@@ -9667,10 +9669,10 @@
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A384" s="54">
+      <c r="A384" s="39">
         <v>378</v>
       </c>
-      <c r="B384" s="46" t="s">
+      <c r="B384" s="34" t="s">
         <v>368</v>
       </c>
       <c r="C384" s="14"/>
@@ -9689,10 +9691,10 @@
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A385" s="55">
+      <c r="A385" s="40">
         <v>379</v>
       </c>
-      <c r="B385" s="46" t="s">
+      <c r="B385" s="34" t="s">
         <v>346</v>
       </c>
       <c r="C385" s="14"/>
@@ -9711,10 +9713,10 @@
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386" s="54">
+      <c r="A386" s="39">
         <v>380</v>
       </c>
-      <c r="B386" s="46" t="s">
+      <c r="B386" s="34" t="s">
         <v>347</v>
       </c>
       <c r="C386" s="14"/>
@@ -9733,10 +9735,10 @@
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A387" s="54">
+      <c r="A387" s="39">
         <v>381</v>
       </c>
-      <c r="B387" s="46" t="s">
+      <c r="B387" s="34" t="s">
         <v>348</v>
       </c>
       <c r="C387" s="14"/>
@@ -9750,10 +9752,10 @@
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A388" s="54">
+      <c r="A388" s="39">
         <v>382</v>
       </c>
-      <c r="B388" s="46" t="s">
+      <c r="B388" s="34" t="s">
         <v>349</v>
       </c>
       <c r="C388" s="14"/>
@@ -9772,10 +9774,10 @@
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A389" s="55">
+      <c r="A389" s="40">
         <v>383</v>
       </c>
-      <c r="B389" s="46" t="s">
+      <c r="B389" s="34" t="s">
         <v>181</v>
       </c>
       <c r="C389" s="14"/>
@@ -9794,10 +9796,10 @@
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A390" s="54">
+      <c r="A390" s="39">
         <v>384</v>
       </c>
-      <c r="B390" s="46" t="s">
+      <c r="B390" s="34" t="s">
         <v>350</v>
       </c>
       <c r="C390" s="14"/>
@@ -9816,10 +9818,10 @@
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A391" s="54">
+      <c r="A391" s="39">
         <v>385</v>
       </c>
-      <c r="B391" s="46" t="s">
+      <c r="B391" s="34" t="s">
         <v>351</v>
       </c>
       <c r="C391" s="14"/>
@@ -9833,10 +9835,10 @@
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A392" s="54">
+      <c r="A392" s="39">
         <v>386</v>
       </c>
-      <c r="B392" s="46" t="s">
+      <c r="B392" s="34" t="s">
         <v>352</v>
       </c>
       <c r="C392" s="14"/>
@@ -9850,10 +9852,10 @@
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A393" s="55">
+      <c r="A393" s="40">
         <v>387</v>
       </c>
-      <c r="B393" s="46" t="s">
+      <c r="B393" s="34" t="s">
         <v>353</v>
       </c>
       <c r="C393" s="14"/>
@@ -9872,10 +9874,10 @@
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A394" s="54">
+      <c r="A394" s="39">
         <v>388</v>
       </c>
-      <c r="B394" s="46" t="s">
+      <c r="B394" s="34" t="s">
         <v>354</v>
       </c>
       <c r="C394" s="14"/>
@@ -9894,10 +9896,10 @@
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A395" s="54">
+      <c r="A395" s="39">
         <v>389</v>
       </c>
-      <c r="B395" s="46" t="s">
+      <c r="B395" s="34" t="s">
         <v>306</v>
       </c>
       <c r="C395" s="14"/>
@@ -9916,10 +9918,10 @@
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A396" s="54">
+      <c r="A396" s="39">
         <v>390</v>
       </c>
-      <c r="B396" s="46" t="s">
+      <c r="B396" s="34" t="s">
         <v>260</v>
       </c>
       <c r="C396" s="14"/>
@@ -9938,10 +9940,10 @@
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A397" s="55">
+      <c r="A397" s="40">
         <v>391</v>
       </c>
-      <c r="B397" s="46" t="s">
+      <c r="B397" s="34" t="s">
         <v>355</v>
       </c>
       <c r="C397" s="14"/>
@@ -9955,10 +9957,10 @@
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A398" s="54">
+      <c r="A398" s="39">
         <v>392</v>
       </c>
-      <c r="B398" s="46" t="s">
+      <c r="B398" s="34" t="s">
         <v>356</v>
       </c>
       <c r="C398" s="14"/>
@@ -9972,10 +9974,10 @@
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399" s="54">
+      <c r="A399" s="39">
         <v>393</v>
       </c>
-      <c r="B399" s="46" t="s">
+      <c r="B399" s="34" t="s">
         <v>262</v>
       </c>
       <c r="C399" s="14"/>
@@ -9994,10 +9996,10 @@
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A400" s="54">
+      <c r="A400" s="39">
         <v>394</v>
       </c>
-      <c r="B400" s="46" t="s">
+      <c r="B400" s="34" t="s">
         <v>273</v>
       </c>
       <c r="C400" s="14"/>
@@ -10016,10 +10018,10 @@
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A401" s="55">
+      <c r="A401" s="40">
         <v>395</v>
       </c>
-      <c r="B401" s="46" t="s">
+      <c r="B401" s="34" t="s">
         <v>369</v>
       </c>
       <c r="C401" s="14"/>
@@ -10038,10 +10040,10 @@
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402" s="54">
+      <c r="A402" s="39">
         <v>396</v>
       </c>
-      <c r="B402" s="46" t="s">
+      <c r="B402" s="34" t="s">
         <v>357</v>
       </c>
       <c r="C402" s="14"/>
@@ -10055,10 +10057,10 @@
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403" s="54">
+      <c r="A403" s="39">
         <v>397</v>
       </c>
-      <c r="B403" s="46" t="s">
+      <c r="B403" s="34" t="s">
         <v>319</v>
       </c>
       <c r="C403" s="14"/>
@@ -10072,10 +10074,10 @@
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A404" s="54">
+      <c r="A404" s="39">
         <v>398</v>
       </c>
-      <c r="B404" s="46" t="s">
+      <c r="B404" s="34" t="s">
         <v>358</v>
       </c>
       <c r="C404" s="14"/>
@@ -10089,10 +10091,10 @@
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A405" s="55">
+      <c r="A405" s="40">
         <v>399</v>
       </c>
-      <c r="B405" s="46" t="s">
+      <c r="B405" s="34" t="s">
         <v>320</v>
       </c>
       <c r="C405" s="14"/>
@@ -10106,10 +10108,10 @@
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A406" s="54">
+      <c r="A406" s="39">
         <v>400</v>
       </c>
-      <c r="B406" s="46" t="s">
+      <c r="B406" s="34" t="s">
         <v>371</v>
       </c>
       <c r="C406" s="14"/>
@@ -10128,10 +10130,10 @@
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A407" s="54">
+      <c r="A407" s="39">
         <v>401</v>
       </c>
-      <c r="B407" s="46" t="s">
+      <c r="B407" s="34" t="s">
         <v>359</v>
       </c>
       <c r="C407" s="14"/>
@@ -10149,10 +10151,10 @@
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A408" s="54">
+      <c r="A408" s="39">
         <v>402</v>
       </c>
-      <c r="B408" s="46" t="s">
+      <c r="B408" s="34" t="s">
         <v>333</v>
       </c>
       <c r="C408" s="14"/>
@@ -10166,10 +10168,10 @@
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A409" s="55">
+      <c r="A409" s="40">
         <v>403</v>
       </c>
-      <c r="B409" s="46" t="s">
+      <c r="B409" s="34" t="s">
         <v>317</v>
       </c>
       <c r="C409" s="14"/>
@@ -10183,10 +10185,10 @@
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A410" s="54">
+      <c r="A410" s="39">
         <v>404</v>
       </c>
-      <c r="B410" s="46" t="s">
+      <c r="B410" s="34" t="s">
         <v>318</v>
       </c>
       <c r="C410" s="14"/>
@@ -10195,15 +10197,15 @@
       <c r="F410" s="5"/>
       <c r="G410" s="15"/>
       <c r="H410" s="15">
-        <f t="shared" ref="H410:H473" si="13">E410*G410</f>
+        <f t="shared" ref="H410:H442" si="13">E410*G410</f>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A411" s="54">
+      <c r="A411" s="39">
         <v>405</v>
       </c>
-      <c r="B411" s="46" t="s">
+      <c r="B411" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C411" s="14"/>
@@ -10225,11 +10227,11 @@
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A412" s="54">
+      <c r="A412" s="39">
         <v>406</v>
       </c>
-      <c r="B412" s="46" t="s">
-        <v>378</v>
+      <c r="B412" s="34" t="s">
+        <v>377</v>
       </c>
       <c r="C412" s="14"/>
       <c r="D412" s="5"/>
@@ -10247,11 +10249,11 @@
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A413" s="55">
+      <c r="A413" s="40">
         <v>407</v>
       </c>
-      <c r="B413" s="46" t="s">
-        <v>379</v>
+      <c r="B413" s="34" t="s">
+        <v>378</v>
       </c>
       <c r="C413" s="14"/>
       <c r="D413" s="5"/>
@@ -10269,11 +10271,11 @@
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A414" s="54">
+      <c r="A414" s="39">
         <v>408</v>
       </c>
-      <c r="B414" s="46" t="s">
-        <v>380</v>
+      <c r="B414" s="34" t="s">
+        <v>379</v>
       </c>
       <c r="C414" s="14"/>
       <c r="D414" s="5"/>
@@ -10291,11 +10293,11 @@
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A415" s="54">
+      <c r="A415" s="39">
         <v>409</v>
       </c>
-      <c r="B415" s="46" t="s">
-        <v>381</v>
+      <c r="B415" s="34" t="s">
+        <v>380</v>
       </c>
       <c r="C415" s="14"/>
       <c r="D415" s="5"/>
@@ -10313,11 +10315,11 @@
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A416" s="54">
+      <c r="A416" s="39">
         <v>410</v>
       </c>
-      <c r="B416" s="46" t="s">
-        <v>382</v>
+      <c r="B416" s="34" t="s">
+        <v>381</v>
       </c>
       <c r="C416" s="14"/>
       <c r="D416" s="5"/>
@@ -10335,11 +10337,11 @@
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A417" s="55">
+      <c r="A417" s="40">
         <v>411</v>
       </c>
-      <c r="B417" s="46" t="s">
-        <v>383</v>
+      <c r="B417" s="34" t="s">
+        <v>382</v>
       </c>
       <c r="C417" s="14"/>
       <c r="D417" s="5"/>
@@ -10357,11 +10359,11 @@
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A418" s="54">
+      <c r="A418" s="39">
         <v>412</v>
       </c>
-      <c r="B418" s="46" t="s">
-        <v>384</v>
+      <c r="B418" s="34" t="s">
+        <v>383</v>
       </c>
       <c r="C418" s="14"/>
       <c r="D418" s="5"/>
@@ -10379,11 +10381,11 @@
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A419" s="54">
+      <c r="A419" s="39">
         <v>413</v>
       </c>
-      <c r="B419" s="46" t="s">
-        <v>385</v>
+      <c r="B419" s="34" t="s">
+        <v>384</v>
       </c>
       <c r="C419" s="14"/>
       <c r="D419" s="5"/>
@@ -10401,11 +10403,11 @@
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A420" s="54">
+      <c r="A420" s="39">
         <v>414</v>
       </c>
-      <c r="B420" s="46" t="s">
-        <v>386</v>
+      <c r="B420" s="34" t="s">
+        <v>385</v>
       </c>
       <c r="C420" s="14"/>
       <c r="D420" s="5"/>
@@ -10423,11 +10425,11 @@
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A421" s="55">
+      <c r="A421" s="40">
         <v>415</v>
       </c>
-      <c r="B421" s="46" t="s">
-        <v>387</v>
+      <c r="B421" s="34" t="s">
+        <v>386</v>
       </c>
       <c r="C421" s="14"/>
       <c r="D421" s="5"/>
@@ -10445,11 +10447,11 @@
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A422" s="54">
+      <c r="A422" s="39">
         <v>416</v>
       </c>
-      <c r="B422" s="46" t="s">
-        <v>388</v>
+      <c r="B422" s="34" t="s">
+        <v>387</v>
       </c>
       <c r="C422" s="14"/>
       <c r="D422" s="5"/>
@@ -10467,11 +10469,11 @@
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A423" s="54">
+      <c r="A423" s="39">
         <v>417</v>
       </c>
-      <c r="B423" s="46" t="s">
-        <v>389</v>
+      <c r="B423" s="34" t="s">
+        <v>388</v>
       </c>
       <c r="C423" s="14"/>
       <c r="D423" s="5"/>
@@ -10489,11 +10491,11 @@
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A424" s="54">
+      <c r="A424" s="39">
         <v>418</v>
       </c>
-      <c r="B424" s="46" t="s">
-        <v>390</v>
+      <c r="B424" s="34" t="s">
+        <v>389</v>
       </c>
       <c r="C424" s="14"/>
       <c r="D424" s="5"/>
@@ -10511,11 +10513,11 @@
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A425" s="55">
+      <c r="A425" s="40">
         <v>419</v>
       </c>
-      <c r="B425" s="46" t="s">
-        <v>391</v>
+      <c r="B425" s="34" t="s">
+        <v>390</v>
       </c>
       <c r="C425" s="14"/>
       <c r="D425" s="5"/>
@@ -10533,11 +10535,11 @@
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A426" s="54">
+      <c r="A426" s="39">
         <v>420</v>
       </c>
-      <c r="B426" s="46" t="s">
-        <v>392</v>
+      <c r="B426" s="34" t="s">
+        <v>391</v>
       </c>
       <c r="C426" s="14"/>
       <c r="D426" s="5"/>
@@ -10555,11 +10557,11 @@
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A427" s="54">
+      <c r="A427" s="39">
         <v>421</v>
       </c>
-      <c r="B427" s="46" t="s">
-        <v>393</v>
+      <c r="B427" s="34" t="s">
+        <v>392</v>
       </c>
       <c r="C427" s="14"/>
       <c r="D427" s="5"/>
@@ -10577,11 +10579,11 @@
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A428" s="54">
+      <c r="A428" s="39">
         <v>422</v>
       </c>
-      <c r="B428" s="46" t="s">
-        <v>394</v>
+      <c r="B428" s="34" t="s">
+        <v>393</v>
       </c>
       <c r="C428" s="14"/>
       <c r="D428" s="5"/>
@@ -10599,11 +10601,11 @@
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A429" s="55">
+      <c r="A429" s="40">
         <v>423</v>
       </c>
-      <c r="B429" s="46" t="s">
-        <v>395</v>
+      <c r="B429" s="34" t="s">
+        <v>394</v>
       </c>
       <c r="C429" s="14"/>
       <c r="D429" s="5"/>
@@ -10621,11 +10623,11 @@
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A430" s="54">
+      <c r="A430" s="39">
         <v>424</v>
       </c>
-      <c r="B430" s="46" t="s">
-        <v>397</v>
+      <c r="B430" s="34" t="s">
+        <v>396</v>
       </c>
       <c r="C430" s="14"/>
       <c r="D430" s="5"/>
@@ -10643,11 +10645,11 @@
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A431" s="54">
+      <c r="A431" s="39">
         <v>425</v>
       </c>
-      <c r="B431" s="46" t="s">
-        <v>398</v>
+      <c r="B431" s="34" t="s">
+        <v>397</v>
       </c>
       <c r="C431" s="14"/>
       <c r="D431" s="5"/>
@@ -10664,11 +10666,11 @@
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A432" s="54">
+      <c r="A432" s="39">
         <v>426</v>
       </c>
-      <c r="B432" s="46" t="s">
-        <v>399</v>
+      <c r="B432" s="34" t="s">
+        <v>398</v>
       </c>
       <c r="C432" s="14"/>
       <c r="D432" s="5"/>
@@ -10686,9 +10688,9 @@
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A433" s="54"/>
-      <c r="B433" s="46" t="s">
-        <v>408</v>
+      <c r="A433" s="39"/>
+      <c r="B433" s="34" t="s">
+        <v>407</v>
       </c>
       <c r="C433" s="14"/>
       <c r="D433" s="5"/>
@@ -10705,11 +10707,11 @@
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A434" s="55">
+      <c r="A434" s="40">
         <v>427</v>
       </c>
-      <c r="B434" s="46" t="s">
-        <v>400</v>
+      <c r="B434" s="34" t="s">
+        <v>399</v>
       </c>
       <c r="C434" s="14"/>
       <c r="D434" s="5"/>
@@ -10726,11 +10728,11 @@
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A435" s="54">
+      <c r="A435" s="39">
         <v>428</v>
       </c>
-      <c r="B435" s="46" t="s">
-        <v>401</v>
+      <c r="B435" s="34" t="s">
+        <v>400</v>
       </c>
       <c r="C435" s="14"/>
       <c r="D435" s="5"/>
@@ -10748,11 +10750,11 @@
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A436" s="54">
+      <c r="A436" s="39">
         <v>429</v>
       </c>
-      <c r="B436" s="46" t="s">
-        <v>402</v>
+      <c r="B436" s="34" t="s">
+        <v>401</v>
       </c>
       <c r="C436" s="14"/>
       <c r="D436" s="5"/>
@@ -10769,11 +10771,11 @@
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A437" s="54">
+      <c r="A437" s="39">
         <v>430</v>
       </c>
-      <c r="B437" s="46" t="s">
-        <v>403</v>
+      <c r="B437" s="34" t="s">
+        <v>402</v>
       </c>
       <c r="C437" s="14"/>
       <c r="D437" s="5"/>
@@ -10790,11 +10792,11 @@
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A438" s="55">
+      <c r="A438" s="40">
         <v>431</v>
       </c>
-      <c r="B438" s="46" t="s">
-        <v>406</v>
+      <c r="B438" s="34" t="s">
+        <v>405</v>
       </c>
       <c r="C438" s="14"/>
       <c r="D438" s="5"/>
@@ -10811,11 +10813,11 @@
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A439" s="54">
+      <c r="A439" s="39">
         <v>432</v>
       </c>
-      <c r="B439" s="46" t="s">
-        <v>409</v>
+      <c r="B439" s="34" t="s">
+        <v>408</v>
       </c>
       <c r="C439" s="14"/>
       <c r="D439" s="5"/>
@@ -10832,11 +10834,11 @@
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A440" s="54">
+      <c r="A440" s="39">
         <v>433</v>
       </c>
-      <c r="B440" s="46" t="s">
-        <v>412</v>
+      <c r="B440" s="34" t="s">
+        <v>411</v>
       </c>
       <c r="C440" s="14"/>
       <c r="D440" s="5"/>
@@ -10854,11 +10856,11 @@
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A441" s="54">
+      <c r="A441" s="39">
         <v>434</v>
       </c>
-      <c r="B441" s="46" t="s">
-        <v>413</v>
+      <c r="B441" s="34" t="s">
+        <v>412</v>
       </c>
       <c r="C441" s="14"/>
       <c r="D441" s="5"/>
@@ -10876,11 +10878,11 @@
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A442" s="55">
+      <c r="A442" s="40">
         <v>435</v>
       </c>
-      <c r="B442" s="46" t="s">
-        <v>414</v>
+      <c r="B442" s="34" t="s">
+        <v>413</v>
       </c>
       <c r="C442" s="14"/>
       <c r="D442" s="5"/>
@@ -10898,11 +10900,11 @@
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A443" s="54">
+      <c r="A443" s="39">
         <v>436</v>
       </c>
-      <c r="B443" s="46" t="s">
-        <v>416</v>
+      <c r="B443" s="34" t="s">
+        <v>415</v>
       </c>
       <c r="C443" s="14"/>
       <c r="D443" s="5"/>
@@ -10920,11 +10922,11 @@
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A444" s="54">
+      <c r="A444" s="39">
         <v>437</v>
       </c>
-      <c r="B444" s="46" t="s">
-        <v>417</v>
+      <c r="B444" s="34" t="s">
+        <v>416</v>
       </c>
       <c r="C444" s="14"/>
       <c r="D444" s="5"/>
@@ -10942,11 +10944,11 @@
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A445" s="54">
+      <c r="A445" s="39">
         <v>438</v>
       </c>
-      <c r="B445" s="46" t="s">
-        <v>418</v>
+      <c r="B445" s="34" t="s">
+        <v>417</v>
       </c>
       <c r="C445" s="14"/>
       <c r="D445" s="5"/>
@@ -10964,11 +10966,11 @@
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A446" s="55">
+      <c r="A446" s="40">
         <v>439</v>
       </c>
-      <c r="B446" s="46" t="s">
-        <v>419</v>
+      <c r="B446" s="34" t="s">
+        <v>418</v>
       </c>
       <c r="C446" s="14"/>
       <c r="D446" s="5"/>
@@ -10986,11 +10988,11 @@
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A447" s="54">
+      <c r="A447" s="39">
         <v>440</v>
       </c>
-      <c r="B447" s="46" t="s">
-        <v>420</v>
+      <c r="B447" s="34" t="s">
+        <v>419</v>
       </c>
       <c r="C447" s="14"/>
       <c r="D447" s="5"/>
@@ -11008,11 +11010,11 @@
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A448" s="54">
+      <c r="A448" s="39">
         <v>441</v>
       </c>
-      <c r="B448" s="46" t="s">
-        <v>421</v>
+      <c r="B448" s="34" t="s">
+        <v>420</v>
       </c>
       <c r="C448" s="14"/>
       <c r="D448" s="5"/>
@@ -11030,11 +11032,11 @@
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A449" s="54">
+      <c r="A449" s="39">
         <v>442</v>
       </c>
-      <c r="B449" s="46" t="s">
-        <v>422</v>
+      <c r="B449" s="34" t="s">
+        <v>421</v>
       </c>
       <c r="C449" s="14"/>
       <c r="D449" s="5"/>
@@ -11052,11 +11054,11 @@
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A450" s="55">
+      <c r="A450" s="40">
         <v>443</v>
       </c>
-      <c r="B450" s="46" t="s">
-        <v>425</v>
+      <c r="B450" s="34" t="s">
+        <v>424</v>
       </c>
       <c r="C450" s="14"/>
       <c r="D450" s="5"/>
@@ -11074,11 +11076,11 @@
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A451" s="54">
+      <c r="A451" s="39">
         <v>444</v>
       </c>
-      <c r="B451" s="46" t="s">
-        <v>427</v>
+      <c r="B451" s="34" t="s">
+        <v>426</v>
       </c>
       <c r="C451" s="14"/>
       <c r="D451" s="5"/>
@@ -11095,11 +11097,11 @@
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A452" s="54">
+      <c r="A452" s="39">
         <v>445</v>
       </c>
-      <c r="B452" s="46" t="s">
-        <v>429</v>
+      <c r="B452" s="34" t="s">
+        <v>428</v>
       </c>
       <c r="C452" s="14"/>
       <c r="D452" s="5"/>
@@ -11117,11 +11119,11 @@
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A453" s="54">
+      <c r="A453" s="39">
         <v>446</v>
       </c>
-      <c r="B453" s="46" t="s">
-        <v>430</v>
+      <c r="B453" s="34" t="s">
+        <v>429</v>
       </c>
       <c r="C453" s="14"/>
       <c r="D453" s="5"/>
@@ -11139,11 +11141,11 @@
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A454" s="55">
+      <c r="A454" s="40">
         <v>447</v>
       </c>
-      <c r="B454" s="46" t="s">
-        <v>431</v>
+      <c r="B454" s="34" t="s">
+        <v>430</v>
       </c>
       <c r="C454" s="14"/>
       <c r="D454" s="5"/>
@@ -11161,11 +11163,11 @@
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A455" s="54">
+      <c r="A455" s="39">
         <v>448</v>
       </c>
-      <c r="B455" s="46" t="s">
-        <v>436</v>
+      <c r="B455" s="34" t="s">
+        <v>435</v>
       </c>
       <c r="C455" s="14"/>
       <c r="D455" s="5"/>
@@ -11182,11 +11184,11 @@
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A456" s="54">
+      <c r="A456" s="39">
         <v>449</v>
       </c>
-      <c r="B456" s="46" t="s">
-        <v>437</v>
+      <c r="B456" s="34" t="s">
+        <v>436</v>
       </c>
       <c r="C456" s="14"/>
       <c r="D456" s="5"/>
@@ -11203,11 +11205,11 @@
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A457" s="54">
+      <c r="A457" s="39">
         <v>450</v>
       </c>
-      <c r="B457" s="46" t="s">
-        <v>438</v>
+      <c r="B457" s="34" t="s">
+        <v>437</v>
       </c>
       <c r="C457" s="14"/>
       <c r="D457" s="5"/>
@@ -11224,11 +11226,11 @@
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A458" s="55">
+      <c r="A458" s="40">
         <v>451</v>
       </c>
-      <c r="B458" s="46" t="s">
-        <v>439</v>
+      <c r="B458" s="34" t="s">
+        <v>438</v>
       </c>
       <c r="C458" s="14"/>
       <c r="D458" s="5"/>
@@ -11246,11 +11248,11 @@
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A459" s="54">
+      <c r="A459" s="39">
         <v>452</v>
       </c>
-      <c r="B459" s="46" t="s">
-        <v>440</v>
+      <c r="B459" s="34" t="s">
+        <v>439</v>
       </c>
       <c r="C459" s="14"/>
       <c r="D459" s="5"/>
@@ -11268,11 +11270,11 @@
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A460" s="54">
+      <c r="A460" s="39">
         <v>453</v>
       </c>
-      <c r="B460" s="46" t="s">
-        <v>447</v>
+      <c r="B460" s="34" t="s">
+        <v>446</v>
       </c>
       <c r="C460" s="14"/>
       <c r="D460" s="5"/>
@@ -11290,11 +11292,11 @@
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A461" s="54">
+      <c r="A461" s="39">
         <v>454</v>
       </c>
-      <c r="B461" s="46" t="s">
-        <v>449</v>
+      <c r="B461" s="34" t="s">
+        <v>448</v>
       </c>
       <c r="C461" s="14"/>
       <c r="D461" s="5"/>
@@ -11311,11 +11313,11 @@
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A462" s="55">
+      <c r="A462" s="40">
         <v>455</v>
       </c>
-      <c r="B462" s="46" t="s">
-        <v>450</v>
+      <c r="B462" s="34" t="s">
+        <v>449</v>
       </c>
       <c r="C462" s="14"/>
       <c r="D462" s="5"/>
@@ -11332,11 +11334,11 @@
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A463" s="54">
+      <c r="A463" s="39">
         <v>456</v>
       </c>
-      <c r="B463" s="46" t="s">
-        <v>451</v>
+      <c r="B463" s="34" t="s">
+        <v>450</v>
       </c>
       <c r="C463" s="14"/>
       <c r="D463" s="5"/>
@@ -11353,11 +11355,11 @@
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A464" s="54">
+      <c r="A464" s="39">
         <v>457</v>
       </c>
-      <c r="B464" s="46" t="s">
-        <v>452</v>
+      <c r="B464" s="34" t="s">
+        <v>451</v>
       </c>
       <c r="C464" s="14"/>
       <c r="D464" s="5"/>
@@ -11374,11 +11376,11 @@
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A465" s="54">
+      <c r="A465" s="39">
         <v>458</v>
       </c>
-      <c r="B465" s="46" t="s">
-        <v>453</v>
+      <c r="B465" s="34" t="s">
+        <v>452</v>
       </c>
       <c r="C465" s="14"/>
       <c r="D465" s="5"/>
@@ -11395,14 +11397,14 @@
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A466" s="55">
+      <c r="A466" s="40">
         <v>459</v>
       </c>
-      <c r="B466" s="46" t="s">
-        <v>454</v>
+      <c r="B466" s="34" t="s">
+        <v>453</v>
       </c>
       <c r="C466" s="14"/>
-      <c r="D466" s="44"/>
+      <c r="D466" s="32"/>
       <c r="E466" s="12">
         <v>0.24</v>
       </c>
@@ -11416,11 +11418,11 @@
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A467" s="54">
+      <c r="A467" s="39">
         <v>460</v>
       </c>
-      <c r="B467" s="46" t="s">
-        <v>451</v>
+      <c r="B467" s="34" t="s">
+        <v>450</v>
       </c>
       <c r="C467" s="14"/>
       <c r="D467" s="5"/>
@@ -11437,11 +11439,11 @@
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A468" s="54">
+      <c r="A468" s="39">
         <v>461</v>
       </c>
-      <c r="B468" s="46" t="s">
-        <v>456</v>
+      <c r="B468" s="34" t="s">
+        <v>455</v>
       </c>
       <c r="C468" s="14"/>
       <c r="D468" s="5"/>
@@ -11459,10 +11461,10 @@
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A469" s="54">
+      <c r="A469" s="39">
         <v>462</v>
       </c>
-      <c r="B469" s="48"/>
+      <c r="B469" s="36"/>
       <c r="C469" s="14"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -11474,10 +11476,10 @@
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A470" s="55">
+      <c r="A470" s="40">
         <v>463</v>
       </c>
-      <c r="B470" s="48"/>
+      <c r="B470" s="36"/>
       <c r="C470" s="14"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -11489,10 +11491,10 @@
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A471" s="54">
+      <c r="A471" s="39">
         <v>464</v>
       </c>
-      <c r="B471" s="48"/>
+      <c r="B471" s="36"/>
       <c r="C471" s="14"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -11504,10 +11506,10 @@
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A472" s="54">
+      <c r="A472" s="39">
         <v>465</v>
       </c>
-      <c r="B472" s="48"/>
+      <c r="B472" s="36"/>
       <c r="C472" s="14"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -11519,10 +11521,10 @@
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A473" s="54">
+      <c r="A473" s="39">
         <v>466</v>
       </c>
-      <c r="B473" s="48"/>
+      <c r="B473" s="36"/>
       <c r="C473" s="14"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -11534,10 +11536,10 @@
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A474" s="55">
+      <c r="A474" s="40">
         <v>467</v>
       </c>
-      <c r="B474" s="48"/>
+      <c r="B474" s="36"/>
       <c r="C474" s="14"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -11549,10 +11551,10 @@
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A475" s="54">
+      <c r="A475" s="39">
         <v>468</v>
       </c>
-      <c r="B475" s="48"/>
+      <c r="B475" s="36"/>
       <c r="C475" s="14"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -11564,10 +11566,10 @@
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A476" s="54">
+      <c r="A476" s="39">
         <v>469</v>
       </c>
-      <c r="B476" s="48"/>
+      <c r="B476" s="36"/>
       <c r="C476" s="14"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -11579,10 +11581,10 @@
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A477" s="54">
+      <c r="A477" s="39">
         <v>470</v>
       </c>
-      <c r="B477" s="48"/>
+      <c r="B477" s="36"/>
       <c r="C477" s="14"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -11594,10 +11596,10 @@
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A478" s="55">
+      <c r="A478" s="40">
         <v>471</v>
       </c>
-      <c r="B478" s="48"/>
+      <c r="B478" s="36"/>
       <c r="C478" s="14"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -11609,10 +11611,10 @@
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A479" s="54">
+      <c r="A479" s="39">
         <v>472</v>
       </c>
-      <c r="B479" s="48"/>
+      <c r="B479" s="36"/>
       <c r="C479" s="14"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -11624,10 +11626,10 @@
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A480" s="54">
+      <c r="A480" s="39">
         <v>473</v>
       </c>
-      <c r="B480" s="48"/>
+      <c r="B480" s="36"/>
       <c r="C480" s="14"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -11639,10 +11641,10 @@
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A481" s="54">
+      <c r="A481" s="39">
         <v>474</v>
       </c>
-      <c r="B481" s="48"/>
+      <c r="B481" s="36"/>
       <c r="C481" s="14"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -11654,7 +11656,7 @@
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A482" s="56"/>
+      <c r="A482" s="41"/>
       <c r="C482"/>
       <c r="G482"/>
       <c r="H482" s="15">
@@ -11663,57 +11665,57 @@
       </c>
     </row>
     <row r="483" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A483" s="56"/>
-      <c r="B483" s="45" t="s">
+      <c r="A483" s="41"/>
+      <c r="B483" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
       <c r="E483" s="26">
-        <f>SUM(E5:E222)</f>
-        <v>2986.6109999999999</v>
+        <f>SUM(E5:E482)</f>
+        <v>22687.791000000001</v>
       </c>
       <c r="F483" s="26">
-        <f>SUM(F5:F222)</f>
-        <v>0</v>
-      </c>
-      <c r="G483" s="25"/>
+        <f>SUM(F5:F482)</f>
+        <v>71</v>
+      </c>
+      <c r="G483" s="26"/>
       <c r="H483" s="27">
-        <f>SUM(H5:H222)</f>
-        <v>347355.43200000009</v>
+        <f>SUM(H5:H482)</f>
+        <v>4013029.9500000007</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A484" s="56"/>
+      <c r="A484" s="41"/>
       <c r="C484"/>
       <c r="G484"/>
       <c r="H484"/>
     </row>
     <row r="485" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A485" s="56"/>
-      <c r="B485" s="50" t="s">
+      <c r="A485" s="41"/>
+      <c r="B485" s="56" t="s">
         <v>13</v>
       </c>
       <c r="C485"/>
-      <c r="E485" s="58" t="s">
+      <c r="E485" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F485" s="59" t="s">
+      <c r="F485" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G485" s="60" t="s">
+      <c r="G485" s="45" t="s">
         <v>360</v>
       </c>
       <c r="H485"/>
     </row>
     <row r="486" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A486" s="56"/>
-      <c r="B486" s="51"/>
+      <c r="A486" s="41"/>
+      <c r="B486" s="57"/>
       <c r="C486"/>
-      <c r="E486" s="33">
+      <c r="E486" s="59">
         <v>795</v>
       </c>
-      <c r="F486" s="33">
+      <c r="F486" s="59">
         <v>159</v>
       </c>
       <c r="G486" s="61">
@@ -11723,40 +11725,40 @@
       <c r="H486"/>
     </row>
     <row r="487" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A487" s="56"/>
-      <c r="B487" s="52"/>
+      <c r="A487" s="41"/>
+      <c r="B487" s="58"/>
       <c r="C487"/>
-      <c r="E487" s="34"/>
-      <c r="F487" s="34"/>
+      <c r="E487" s="60"/>
+      <c r="F487" s="60"/>
       <c r="G487" s="61"/>
       <c r="H487"/>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A488" s="56"/>
+      <c r="A488" s="41"/>
       <c r="C488"/>
       <c r="G488"/>
       <c r="H488"/>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A489" s="56"/>
+      <c r="A489" s="41"/>
       <c r="C489"/>
       <c r="G489"/>
       <c r="H489"/>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A490" s="56"/>
+      <c r="A490" s="41"/>
       <c r="C490"/>
       <c r="G490"/>
       <c r="H490"/>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A491" s="56"/>
+      <c r="A491" s="41"/>
       <c r="C491"/>
       <c r="G491"/>
       <c r="H491"/>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A492" s="56"/>
+      <c r="A492" s="41"/>
       <c r="C492"/>
       <c r="G492"/>
       <c r="H492"/>
